--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BD330-0821-42FC-8835-1C1FAAE27D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57B2AD-1F68-44B5-B13F-4F07A0C737B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="M50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="N50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="N65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="179">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1072,9 +1072,6 @@
     <t>\I: TechDesc</t>
   </si>
   <si>
-    <t>Cumulative Reserves [PJ]</t>
-  </si>
-  <si>
     <t>HC</t>
   </si>
   <si>
@@ -1277,6 +1274,81 @@
   </si>
   <si>
     <t>\I: New Fuel Supply</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>ELEKTROLIZER</t>
+  </si>
+  <si>
+    <t>elektrolizer</t>
+  </si>
+  <si>
+    <t>ELE_GAS_H2</t>
+  </si>
+  <si>
+    <t>ELE_H2</t>
+  </si>
+  <si>
+    <t>Nie ważne dla nas</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ulative Reserves [PJ]</t>
+    </r>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural gas/hydrogen </t>
+  </si>
+  <si>
+    <t>hydrogen turbine</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2020</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2025</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2030</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2035</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2040</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2045</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2050</t>
+  </si>
+  <si>
+    <t>INFO DLA KOSIORA I RYMKA: Wypełnijcie ponizej tabelke, dodałem tam trzy nowe technologie, elektrolizer, turbina mieszana na gaz i wodór i turbina tylko na wodór. Musicie powypełniać zaznaczone na rozowo pola.</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1359,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1364,8 +1436,33 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +1520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1597,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,15 +1725,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1783,7 +1898,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1821,7 +1936,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1893,7 +2008,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2068,10 +2183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X104"/>
+  <dimension ref="B1:AE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2080,49 +2195,73 @@
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" customWidth="1"/>
     <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="18" width="4.6640625" customWidth="1"/>
+    <col min="5" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" customWidth="1"/>
+    <col min="23" max="25" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="L1" s="11" t="s">
+    <row r="1" spans="2:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C1" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="S1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+    </row>
+    <row r="2" spans="2:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="S2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2139,8 +2278,15 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="2:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2154,37 +2300,58 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2197,143 +2364,164 @@
       <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="V6" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="str">
-        <f>C63</f>
+        <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
       <c r="C7" s="21" t="str">
-        <f>D63</f>
+        <f>D67</f>
         <v>Brown Coal Pulverized</v>
       </c>
       <c r="D7" s="28" t="str">
-        <f>M49</f>
+        <f>T53</f>
         <v>BC</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>$M$53</f>
+        <f t="shared" ref="E7:E26" si="0">$T$57</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="21">
         <v>2025</v>
       </c>
-      <c r="G7" s="34">
+      <c r="N7" s="34">
         <v>0.44</v>
       </c>
-      <c r="H7" s="21">
+      <c r="O7" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I7" s="34">
+      <c r="P7" s="34">
         <v>0.8</v>
       </c>
-      <c r="J7" s="57">
+      <c r="Q7" s="57">
         <v>8100</v>
       </c>
-      <c r="K7" s="57">
-        <f>J7</f>
+      <c r="R7" s="57">
+        <f>Q7</f>
         <v>8100</v>
       </c>
-      <c r="L7" s="36">
+      <c r="S7" s="36">
         <v>210</v>
       </c>
-      <c r="M7" s="35">
+      <c r="T7" s="35">
         <v>4.3</v>
       </c>
-      <c r="N7" s="21">
+      <c r="U7" s="21">
         <v>40</v>
       </c>
-      <c r="O7" s="34">
+      <c r="V7" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="0">C64</f>
+        <f t="shared" ref="B8:C8" si="1">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
+      </c>
+      <c r="D8" s="30" t="str">
+        <f>T53</f>
+        <v>BC</v>
+      </c>
+      <c r="E8" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Brown Coal Pulverized + Carbon Capture &amp; Storage</v>
-      </c>
-      <c r="D8" s="30" t="str">
-        <f>M49</f>
-        <v>BC</v>
-      </c>
-      <c r="E8" s="30" t="str">
-        <f t="shared" ref="E8:E26" si="1">$M$53</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="58">
         <v>2030</v>
       </c>
-      <c r="G8" s="38">
+      <c r="N8" s="38">
         <v>0.38</v>
       </c>
-      <c r="H8" s="37">
+      <c r="O8" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="38">
+      <c r="P8" s="38">
         <v>0.8</v>
       </c>
-      <c r="J8" s="57">
+      <c r="Q8" s="57">
         <v>14600</v>
       </c>
-      <c r="K8" s="57">
-        <f t="shared" ref="K8:K26" si="2">J8</f>
+      <c r="R8" s="57">
+        <f t="shared" ref="R8:R26" si="2">Q8</f>
         <v>14600</v>
       </c>
-      <c r="L8" s="40">
+      <c r="S8" s="40">
         <v>320</v>
       </c>
-      <c r="M8" s="39">
+      <c r="T8" s="39">
         <v>10.8</v>
       </c>
-      <c r="N8" s="37">
+      <c r="U8" s="37">
         <v>40</v>
       </c>
-      <c r="O8" s="38">
+      <c r="V8" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="3">C65</f>
+        <f t="shared" ref="B9:C9" si="3">C69</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
@@ -2341,48 +2529,55 @@
         <v>Brown Coal Fluidzed Bed</v>
       </c>
       <c r="D9" s="28" t="str">
-        <f>M49</f>
+        <f>T53</f>
         <v>BC</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="21">
         <v>2025</v>
       </c>
-      <c r="G9" s="34">
+      <c r="N9" s="34">
         <v>0.4</v>
       </c>
-      <c r="H9" s="21">
+      <c r="O9" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="34">
+      <c r="P9" s="34">
         <v>0.8</v>
       </c>
-      <c r="J9" s="57">
+      <c r="Q9" s="57">
         <v>9200</v>
       </c>
-      <c r="K9" s="57">
+      <c r="R9" s="57">
         <f t="shared" si="2"/>
         <v>9200</v>
       </c>
-      <c r="L9" s="36">
+      <c r="S9" s="36">
         <v>220</v>
       </c>
-      <c r="M9" s="35">
+      <c r="T9" s="35">
         <v>4.3</v>
       </c>
-      <c r="N9" s="21">
+      <c r="U9" s="21">
         <v>40</v>
       </c>
-      <c r="O9" s="34">
+      <c r="V9" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="4">C66</f>
+        <f t="shared" ref="B10:C10" si="4">C70</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
@@ -2390,48 +2585,55 @@
         <v>Hard Coal Pulverized</v>
       </c>
       <c r="D10" s="30" t="str">
-        <f>M48</f>
+        <f>T52</f>
         <v>HC</v>
       </c>
       <c r="E10" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="37">
         <v>2025</v>
       </c>
-      <c r="G10" s="38">
+      <c r="N10" s="38">
         <v>0.46</v>
       </c>
-      <c r="H10" s="37">
+      <c r="O10" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="38">
+      <c r="P10" s="38">
         <v>0.8</v>
       </c>
-      <c r="J10" s="57">
+      <c r="Q10" s="57">
         <v>7400</v>
       </c>
-      <c r="K10" s="57">
+      <c r="R10" s="57">
         <f t="shared" si="2"/>
         <v>7400</v>
       </c>
-      <c r="L10" s="40">
+      <c r="S10" s="40">
         <v>190</v>
       </c>
-      <c r="M10" s="39">
+      <c r="T10" s="39">
         <v>4</v>
       </c>
-      <c r="N10" s="37">
+      <c r="U10" s="37">
         <v>40</v>
       </c>
-      <c r="O10" s="38">
+      <c r="V10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="5">C67</f>
+        <f t="shared" ref="B11:C11" si="5">C71</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
@@ -2439,48 +2641,55 @@
         <v>Hard Coal Internal Gasification Combined Cycle</v>
       </c>
       <c r="D11" s="28" t="str">
-        <f>M48</f>
+        <f>T52</f>
         <v>HC</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="21">
         <v>2025</v>
       </c>
-      <c r="G11" s="34">
+      <c r="N11" s="34">
         <v>0.48</v>
       </c>
-      <c r="H11" s="21">
+      <c r="O11" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="34">
+      <c r="P11" s="34">
         <v>0.8</v>
       </c>
-      <c r="J11" s="57">
+      <c r="Q11" s="57">
         <v>10100</v>
       </c>
-      <c r="K11" s="57">
+      <c r="R11" s="57">
         <f t="shared" si="2"/>
         <v>10100</v>
       </c>
-      <c r="L11" s="36">
+      <c r="S11" s="36">
         <v>260</v>
       </c>
-      <c r="M11" s="35">
+      <c r="T11" s="35">
         <v>6.3</v>
       </c>
-      <c r="N11" s="21">
+      <c r="U11" s="21">
         <v>40</v>
       </c>
-      <c r="O11" s="34">
+      <c r="V11" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
-        <f t="shared" ref="B12:C26" si="6">C68</f>
+        <f t="shared" ref="B12:C25" si="6">C72</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
@@ -2488,46 +2697,53 @@
         <v>Hard Coal Internal Gasification Combined Cycle + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D12" s="30" t="str">
-        <f>M48</f>
+        <f>T52</f>
         <v>HC</v>
       </c>
       <c r="E12" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="58">
         <v>2030</v>
       </c>
-      <c r="G12" s="38">
+      <c r="N12" s="38">
         <v>0.4</v>
       </c>
-      <c r="H12" s="37">
+      <c r="O12" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I12" s="38">
+      <c r="P12" s="38">
         <v>0.8</v>
       </c>
-      <c r="J12" s="57">
+      <c r="Q12" s="57">
         <v>14600</v>
       </c>
-      <c r="K12" s="57">
+      <c r="R12" s="57">
         <f t="shared" si="2"/>
         <v>14600</v>
       </c>
-      <c r="L12" s="40">
+      <c r="S12" s="40">
         <v>350</v>
       </c>
-      <c r="M12" s="39">
+      <c r="T12" s="39">
         <v>9</v>
       </c>
-      <c r="N12" s="37">
+      <c r="U12" s="37">
         <v>40</v>
       </c>
-      <c r="O12" s="38">
+      <c r="V12" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2537,46 +2753,53 @@
         <v>Natural Gas Combined Cycle Gas Turbine</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f>M50</f>
+        <f>T54</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E13" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21">
         <v>2025</v>
       </c>
-      <c r="G13" s="34">
+      <c r="N13" s="34">
         <v>0.6</v>
       </c>
-      <c r="H13" s="21">
+      <c r="O13" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I13" s="34">
+      <c r="P13" s="34">
         <v>0.6</v>
       </c>
-      <c r="J13" s="57">
+      <c r="Q13" s="57">
         <v>3300</v>
       </c>
-      <c r="K13" s="57">
+      <c r="R13" s="57">
         <f t="shared" si="2"/>
         <v>3300</v>
       </c>
-      <c r="L13" s="36">
+      <c r="S13" s="36">
         <v>80</v>
       </c>
-      <c r="M13" s="35">
+      <c r="T13" s="35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N13" s="21">
+      <c r="U13" s="21">
         <v>30</v>
       </c>
-      <c r="O13" s="34">
+      <c r="V13" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2586,46 +2809,53 @@
         <v>Natural Gas Combined Cycle Gas Turbine + Carbon Capture &amp; Storage</v>
       </c>
       <c r="D14" s="30" t="str">
-        <f>M50</f>
+        <f>T54</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E14" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="58">
         <v>2030</v>
       </c>
-      <c r="G14" s="38">
+      <c r="N14" s="38">
         <v>0.51</v>
       </c>
-      <c r="H14" s="37">
+      <c r="O14" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I14" s="38">
+      <c r="P14" s="38">
         <v>0.6</v>
       </c>
-      <c r="J14" s="58">
+      <c r="Q14" s="58">
         <v>6000</v>
       </c>
-      <c r="K14" s="58">
+      <c r="R14" s="58">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="L14" s="37">
+      <c r="S14" s="37">
         <v>170</v>
       </c>
-      <c r="M14" s="39">
+      <c r="T14" s="39">
         <v>5</v>
       </c>
-      <c r="N14" s="37">
+      <c r="U14" s="37">
         <v>30</v>
       </c>
-      <c r="O14" s="38">
+      <c r="V14" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2635,46 +2865,53 @@
         <v>Natural Gas Open Cycle Gas Turbine</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>M50</f>
+        <f>T54</f>
         <v>NAT-GAS</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21">
         <v>2025</v>
       </c>
-      <c r="G15" s="34">
+      <c r="N15" s="34">
         <v>0.4</v>
       </c>
-      <c r="H15" s="21">
+      <c r="O15" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I15" s="34">
+      <c r="P15" s="34">
         <v>0.2</v>
       </c>
-      <c r="J15" s="58">
+      <c r="Q15" s="58">
         <v>2200</v>
       </c>
-      <c r="K15" s="58">
+      <c r="R15" s="58">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="L15" s="21">
+      <c r="S15" s="21">
         <v>70</v>
       </c>
-      <c r="M15" s="35">
+      <c r="T15" s="35">
         <v>1.8</v>
       </c>
-      <c r="N15" s="21">
+      <c r="U15" s="21">
         <v>30</v>
       </c>
-      <c r="O15" s="34">
+      <c r="V15" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2684,46 +2921,53 @@
         <v>Nuclear Pressurized Water Reactor</v>
       </c>
       <c r="D16" s="37" t="str">
-        <f>C49</f>
+        <f>C53</f>
         <v>URAN</v>
       </c>
       <c r="E16" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="60">
         <v>2035</v>
       </c>
-      <c r="G16" s="38">
+      <c r="N16" s="38">
         <v>0.36</v>
       </c>
-      <c r="H16" s="37">
+      <c r="O16" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I16" s="38">
+      <c r="P16" s="38">
         <v>0.9</v>
       </c>
-      <c r="J16" s="60">
+      <c r="Q16" s="60">
         <v>20200</v>
       </c>
-      <c r="K16" s="60">
+      <c r="R16" s="60">
         <f t="shared" si="2"/>
         <v>20200</v>
       </c>
-      <c r="L16" s="37">
+      <c r="S16" s="37">
         <v>380</v>
       </c>
-      <c r="M16" s="39">
+      <c r="T16" s="39">
         <v>1</v>
       </c>
-      <c r="N16" s="37">
+      <c r="U16" s="37">
         <v>60</v>
       </c>
-      <c r="O16" s="38">
+      <c r="V16" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -2733,45 +2977,52 @@
         <v>Nuclear Small Modular Reactor</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>C49</f>
+        <f>C53</f>
         <v>URAN</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="60">
         <v>2030</v>
       </c>
-      <c r="G17" s="34">
+      <c r="N17" s="34">
         <v>0.36</v>
       </c>
-      <c r="H17" s="21">
+      <c r="O17" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I17" s="34">
+      <c r="P17" s="34">
         <v>0.9</v>
       </c>
-      <c r="J17" s="60">
+      <c r="Q17" s="60">
         <v>10100</v>
       </c>
-      <c r="K17" s="60">
+      <c r="R17" s="60">
         <v>10100</v>
       </c>
-      <c r="L17" s="21">
+      <c r="S17" s="21">
         <v>300</v>
       </c>
-      <c r="M17" s="35">
+      <c r="T17" s="35">
         <v>1</v>
       </c>
-      <c r="N17" s="21">
+      <c r="U17" s="21">
         <v>40</v>
       </c>
-      <c r="O17" s="34">
+      <c r="V17" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -2781,46 +3032,53 @@
         <v>Wind Onshore</v>
       </c>
       <c r="D18" s="30" t="str">
-        <f>M51</f>
+        <f>T55</f>
         <v>WIND-ON</v>
       </c>
       <c r="E18" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37">
         <v>2025</v>
       </c>
-      <c r="G18" s="38">
+      <c r="N18" s="38">
         <v>1</v>
       </c>
-      <c r="H18" s="37">
+      <c r="O18" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I18" s="38">
+      <c r="P18" s="38">
         <v>1</v>
       </c>
-      <c r="J18" s="58">
+      <c r="Q18" s="58">
         <v>5800</v>
       </c>
-      <c r="K18" s="58">
+      <c r="R18" s="58">
         <f t="shared" si="2"/>
         <v>5800</v>
       </c>
-      <c r="L18" s="37">
+      <c r="S18" s="37">
         <v>220</v>
       </c>
-      <c r="M18" s="39">
+      <c r="T18" s="39">
         <v>0</v>
       </c>
-      <c r="N18" s="37">
+      <c r="U18" s="37">
         <v>25</v>
       </c>
-      <c r="O18" s="38">
+      <c r="V18" s="38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -2830,46 +3088,53 @@
         <v>Wind Offshore</v>
       </c>
       <c r="D19" s="21" t="str">
-        <f>C48</f>
+        <f>C52</f>
         <v>WIND-OFF</v>
       </c>
       <c r="E19" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="58">
         <v>2030</v>
       </c>
-      <c r="G19" s="34">
+      <c r="N19" s="34">
         <v>1</v>
       </c>
-      <c r="H19" s="21">
+      <c r="O19" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I19" s="34">
+      <c r="P19" s="34">
         <v>1</v>
       </c>
-      <c r="J19" s="58">
+      <c r="Q19" s="58">
         <v>9400</v>
       </c>
-      <c r="K19" s="58">
+      <c r="R19" s="58">
         <f t="shared" si="2"/>
         <v>9400</v>
       </c>
-      <c r="L19" s="21">
+      <c r="S19" s="21">
         <v>400</v>
       </c>
-      <c r="M19" s="35">
+      <c r="T19" s="35">
         <v>0</v>
       </c>
-      <c r="N19" s="21">
+      <c r="U19" s="21">
         <v>25</v>
       </c>
-      <c r="O19" s="34">
+      <c r="V19" s="34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -2879,46 +3144,53 @@
         <v>Geothermal</v>
       </c>
       <c r="D20" s="37" t="str">
-        <f>C50</f>
+        <f>C54</f>
         <v>GEO</v>
       </c>
       <c r="E20" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37">
         <v>2025</v>
       </c>
-      <c r="G20" s="38">
+      <c r="N20" s="38">
         <v>0.12</v>
       </c>
-      <c r="H20" s="37">
+      <c r="O20" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I20" s="38">
+      <c r="P20" s="38">
         <v>0.8</v>
       </c>
-      <c r="J20" s="58">
+      <c r="Q20" s="58">
         <v>31500</v>
       </c>
-      <c r="K20" s="58">
+      <c r="R20" s="58">
         <f t="shared" si="2"/>
         <v>31500</v>
       </c>
-      <c r="L20" s="37">
+      <c r="S20" s="37">
         <v>720</v>
       </c>
-      <c r="M20" s="39">
+      <c r="T20" s="39">
         <v>0</v>
       </c>
-      <c r="N20" s="37">
+      <c r="U20" s="37">
         <v>30</v>
       </c>
-      <c r="O20" s="38">
+      <c r="V20" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -2928,46 +3200,53 @@
         <v>Photovoltaics Ground</v>
       </c>
       <c r="D21" s="28" t="str">
-        <f>M52</f>
+        <f>T56</f>
         <v>SOLAR</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21">
         <v>2025</v>
       </c>
-      <c r="G21" s="34">
+      <c r="N21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="21">
+      <c r="O21" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I21" s="34">
+      <c r="P21" s="34">
         <v>1</v>
       </c>
-      <c r="J21" s="58">
+      <c r="Q21" s="58">
         <v>3100</v>
       </c>
-      <c r="K21" s="58">
+      <c r="R21" s="58">
         <f t="shared" si="2"/>
         <v>3100</v>
       </c>
-      <c r="L21" s="21">
+      <c r="S21" s="21">
         <v>70</v>
       </c>
-      <c r="M21" s="35">
+      <c r="T21" s="35">
         <v>0</v>
       </c>
-      <c r="N21" s="21">
+      <c r="U21" s="21">
         <v>25</v>
       </c>
-      <c r="O21" s="34">
+      <c r="V21" s="34">
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -2977,46 +3256,53 @@
         <v>Photovoltaics Roof</v>
       </c>
       <c r="D22" s="30" t="str">
-        <f>M52</f>
+        <f>T56</f>
         <v>SOLAR</v>
       </c>
       <c r="E22" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37">
         <v>2025</v>
       </c>
-      <c r="G22" s="38">
+      <c r="N22" s="38">
         <v>1</v>
       </c>
-      <c r="H22" s="37">
+      <c r="O22" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I22" s="38">
+      <c r="P22" s="38">
         <v>1</v>
       </c>
-      <c r="J22" s="58">
+      <c r="Q22" s="58">
         <v>4000</v>
       </c>
-      <c r="K22" s="58">
+      <c r="R22" s="58">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L22" s="37">
+      <c r="S22" s="37">
         <v>90</v>
       </c>
-      <c r="M22" s="39">
+      <c r="T22" s="39">
         <v>0</v>
       </c>
-      <c r="N22" s="37">
+      <c r="U22" s="37">
         <v>25</v>
       </c>
-      <c r="O22" s="38">
+      <c r="V22" s="38">
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3026,46 +3312,53 @@
         <v>Biogas Agricultural</v>
       </c>
       <c r="D23" s="21" t="str">
-        <f>C51</f>
+        <f>C55</f>
         <v>BIOG-AGR</v>
       </c>
       <c r="E23" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21">
         <v>2025</v>
       </c>
-      <c r="G23" s="34">
+      <c r="N23" s="34">
         <v>0.36</v>
       </c>
-      <c r="H23" s="21">
+      <c r="O23" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I23" s="34">
+      <c r="P23" s="34">
         <v>0.8</v>
       </c>
-      <c r="J23" s="58">
+      <c r="Q23" s="58">
         <v>12100</v>
       </c>
-      <c r="K23" s="58">
+      <c r="R23" s="58">
         <f t="shared" si="2"/>
         <v>12100</v>
       </c>
-      <c r="L23" s="21">
+      <c r="S23" s="21">
         <v>990</v>
       </c>
-      <c r="M23" s="35">
+      <c r="T23" s="35">
         <v>0</v>
       </c>
-      <c r="N23" s="21">
+      <c r="U23" s="21">
         <v>25</v>
       </c>
-      <c r="O23" s="34">
+      <c r="V23" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3075,46 +3368,53 @@
         <v>Biogas Waste Water Treatment Plant</v>
       </c>
       <c r="D24" s="37" t="str">
-        <f t="shared" ref="D24:D26" si="7">C52</f>
+        <f t="shared" ref="D24:D26" si="7">C56</f>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E24" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37">
         <v>2025</v>
       </c>
-      <c r="G24" s="38">
+      <c r="N24" s="38">
         <v>0.34</v>
       </c>
-      <c r="H24" s="37">
+      <c r="O24" s="37">
         <v>31.536000000000001</v>
       </c>
-      <c r="I24" s="38">
+      <c r="P24" s="38">
         <v>0.8</v>
       </c>
-      <c r="J24" s="58">
+      <c r="Q24" s="58">
         <v>14100</v>
       </c>
-      <c r="K24" s="58">
+      <c r="R24" s="58">
         <f t="shared" si="2"/>
         <v>14100</v>
       </c>
-      <c r="L24" s="37">
+      <c r="S24" s="37">
         <v>600</v>
       </c>
-      <c r="M24" s="39">
+      <c r="T24" s="39">
         <v>0</v>
       </c>
-      <c r="N24" s="37">
+      <c r="U24" s="37">
         <v>25</v>
       </c>
-      <c r="O24" s="38">
+      <c r="V24" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3128,48 +3428,55 @@
         <v>BIOG_LFILL</v>
       </c>
       <c r="E25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21">
         <v>2025</v>
       </c>
-      <c r="G25" s="34">
+      <c r="N25" s="34">
         <v>0.4</v>
       </c>
-      <c r="H25" s="21">
+      <c r="O25" s="21">
         <v>31.536000000000001</v>
       </c>
-      <c r="I25" s="34">
+      <c r="P25" s="34">
         <v>0.8</v>
       </c>
-      <c r="J25" s="58">
+      <c r="Q25" s="58">
         <v>7200</v>
       </c>
-      <c r="K25" s="58">
+      <c r="R25" s="58">
         <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="L25" s="21">
+      <c r="S25" s="21">
         <v>360</v>
       </c>
-      <c r="M25" s="35">
+      <c r="T25" s="35">
         <v>0</v>
       </c>
-      <c r="N25" s="21">
+      <c r="U25" s="21">
         <v>25</v>
       </c>
-      <c r="O25" s="34">
+      <c r="V25" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>C89</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>D89</f>
         <v>Biomass</v>
       </c>
       <c r="D26" s="3" t="str">
@@ -3177,521 +3484,697 @@
         <v>BIOM</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
         <v>2025</v>
       </c>
-      <c r="G26" s="42">
+      <c r="N26" s="42">
         <v>0.3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="O26" s="3">
         <v>31.536000000000001</v>
       </c>
-      <c r="I26" s="42">
+      <c r="P26" s="42">
         <v>0.8</v>
       </c>
-      <c r="J26" s="59">
+      <c r="Q26" s="59">
         <v>11500</v>
       </c>
-      <c r="K26" s="59">
+      <c r="R26" s="59">
         <f t="shared" si="2"/>
         <v>11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="S26" s="3">
         <v>540</v>
       </c>
-      <c r="M26" s="1">
+      <c r="T26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="3">
+      <c r="U26" s="3">
         <v>30</v>
       </c>
-      <c r="O26" s="42">
+      <c r="V26" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
+    <row r="27" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="37" t="str">
+        <f>C86</f>
+        <v>ELEKTROLIZER</v>
+      </c>
+      <c r="C27" s="21" t="str">
+        <f>D86</f>
+        <v>elektrolizer</v>
+      </c>
+      <c r="D27" s="37" t="str">
+        <f>$T$57</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="E27" s="21" t="str">
+        <f>C59</f>
+        <v>HYDROGEN</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="37">
+        <v>2030</v>
+      </c>
+      <c r="N27" s="68"/>
+      <c r="O27" s="37">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="70"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f>C87</f>
+        <v>ELE_GAS_H2</v>
+      </c>
+      <c r="C28" t="str">
+        <f>D87</f>
+        <v xml:space="preserve">Natural gas/hydrogen </v>
+      </c>
+      <c r="D28" s="66" t="str">
+        <f>T54</f>
+        <v>NAT-GAS</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="M28" s="37">
+        <v>2025</v>
+      </c>
+      <c r="N28" s="69"/>
+      <c r="O28" s="21">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f>C59</f>
+        <v>HYDROGEN</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="37"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E30" s="28" t="str">
+        <f>$T$57</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="37"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f>C88</f>
+        <v>ELE_H2</v>
+      </c>
+      <c r="C31" t="str">
+        <f>D88</f>
+        <v>hydrogen turbine</v>
+      </c>
+      <c r="D31" t="str">
+        <f>C59</f>
+        <v>HYDROGEN</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f>$T$57</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37">
+        <v>2035</v>
+      </c>
+      <c r="N31" s="69"/>
+      <c r="O31" s="3">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="Z32" s="21">
+        <f>AA90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="31" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="47" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="Z33" s="37">
+        <f t="shared" ref="Z33:Z37" si="8">AA91</f>
         <v>0</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="Z34" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="49"/>
+      <c r="Z35" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C36" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D36" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E36" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="N36" s="50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+      <c r="Z36" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="E37" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="str">
-        <f>C84</f>
+      <c r="Z37" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="51" t="str">
+        <f>C91</f>
         <v>MIN_WIND-OFF</v>
       </c>
-      <c r="C34" s="51" t="str">
-        <f>D84</f>
+      <c r="C38" s="51" t="str">
+        <f>D91</f>
         <v>Offshore Wind</v>
       </c>
-      <c r="D34" s="52" t="str">
-        <f>C48</f>
+      <c r="D38" s="52" t="str">
+        <f>C52</f>
         <v>WIND-OFF</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54">
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54">
         <v>1E-3</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="str">
-        <f t="shared" ref="B35:C39" si="8">C85</f>
+      <c r="N38" s="53"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="55" t="str">
+        <f t="shared" ref="B39:B44" si="9">C92</f>
         <v>IMP_URAN</v>
       </c>
-      <c r="C35" s="55" t="str">
-        <f t="shared" si="8"/>
+      <c r="C39" s="55" t="str">
+        <f t="shared" ref="C39:C43" si="10">D92</f>
         <v>Nuclear Fuel Import</v>
       </c>
-      <c r="D35" s="37" t="str">
-        <f>C49</f>
+      <c r="D39" s="37" t="str">
+        <f>C53</f>
         <v>URAN</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37">
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="str">
-        <f t="shared" si="8"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="51" t="str">
+        <f t="shared" si="9"/>
         <v>MIN_GEO</v>
       </c>
-      <c r="C36" s="51" t="str">
-        <f t="shared" si="8"/>
+      <c r="C40" s="51" t="str">
+        <f t="shared" si="10"/>
         <v>Geothermal Mining</v>
       </c>
-      <c r="D36" s="21" t="str">
-        <f t="shared" ref="D36:D40" si="9">C50</f>
+      <c r="D40" s="21" t="str">
+        <f t="shared" ref="D40:D44" si="11">C54</f>
         <v>GEO</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21">
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21">
         <v>1E-3</v>
       </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="str">
-        <f t="shared" si="8"/>
+      <c r="N40" s="21"/>
+    </row>
+    <row r="41" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="55" t="str">
+        <f t="shared" si="9"/>
         <v>MIN_BIOG-AGR</v>
       </c>
-      <c r="C37" s="55" t="str">
-        <f t="shared" si="8"/>
+      <c r="C41" s="55" t="str">
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
-      <c r="D37" s="37" t="str">
+      <c r="D41" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>BIOG-AGR</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37">
+        <v>116.11</v>
+      </c>
+      <c r="N41" s="37"/>
+    </row>
+    <row r="42" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="51" t="str">
         <f t="shared" si="9"/>
-        <v>BIOG-AGR</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37">
-        <v>116.11</v>
-      </c>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="str">
-        <f t="shared" si="8"/>
         <v>MIN_BIOG-WWTP</v>
       </c>
-      <c r="C38" s="51" t="str">
-        <f t="shared" si="8"/>
+      <c r="C42" s="51" t="str">
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
-      <c r="D38" s="21" t="str">
+      <c r="D42" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>BIOG-WWTP</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21">
+        <v>104.5</v>
+      </c>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="55" t="str">
         <f t="shared" si="9"/>
-        <v>BIOG-WWTP</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
-        <v>104.5</v>
-      </c>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55" t="str">
-        <f t="shared" si="8"/>
         <v>MIN_BIOG_LFILL</v>
       </c>
-      <c r="C39" s="55" t="str">
-        <f t="shared" si="8"/>
+      <c r="C43" s="55" t="str">
+        <f t="shared" si="10"/>
         <v>Biogas Supply</v>
       </c>
-      <c r="D39" s="37" t="str">
+      <c r="D43" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>BIOG_LFILL</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37">
+        <v>127.7</v>
+      </c>
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="56" t="str">
         <f t="shared" si="9"/>
-        <v>BIOG_LFILL</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37">
-        <v>127.7</v>
-      </c>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="56" t="str">
-        <f>C90</f>
         <v>MIN_BIOM</v>
       </c>
-      <c r="C40" s="56" t="str">
-        <f>D90</f>
+      <c r="C44" s="56" t="str">
+        <f>D97</f>
         <v>Biomass Supply</v>
       </c>
-      <c r="D40" s="45" t="str">
-        <f t="shared" si="9"/>
+      <c r="D44" s="45" t="str">
+        <f t="shared" si="11"/>
         <v>BIOM</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45">
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45">
         <v>25</v>
       </c>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="43" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="N44" s="45"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S45" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="L43" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-    </row>
-    <row r="45" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="S47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="49" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="L45" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="2:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="S49" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+    </row>
+    <row r="50" spans="2:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="N50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="O50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="P50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="S50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="27" t="s">
+      <c r="T50" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N46" s="27" t="s">
+      <c r="U50" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="V50" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="27" t="s">
+      <c r="W50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="X50" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="Y50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="Z50" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:24" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+    <row r="51" spans="2:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="T51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="U51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="V51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="W51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="X51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="Y51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="Z51" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="L48" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-    </row>
-    <row r="49" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="L49" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O49" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-    </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="L50" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="O50" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-    </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="L51" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O51" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-    </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>25</v>
@@ -3700,32 +4183,39 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-      <c r="L52" s="28" t="s">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="S52" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="O52" s="26" t="s">
+      <c r="T52" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="U52" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="V52" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-    </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+    </row>
+    <row r="53" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>25</v>
@@ -3734,888 +4224,1486 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-      <c r="L53" s="33" t="s">
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="S53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="33" t="s">
+      <c r="T53" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="U53" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="V53" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+    </row>
+    <row r="54" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="S54" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="U54" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="V54" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+    </row>
+    <row r="55" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="S55" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="T55" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="U55" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="V55" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+    </row>
+    <row r="56" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="S56" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="U56" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="V56" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+    </row>
+    <row r="57" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="S57" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T57" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="N53" s="33" t="s">
+      <c r="U57" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="V57" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="O53" s="33" t="s">
+      <c r="Z57" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="R53" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="S53" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="22" t="s">
+      <c r="C59" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-    </row>
-    <row r="57" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+    </row>
+    <row r="61" spans="2:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="60" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18" t="s">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="64" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="5" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+    </row>
+    <row r="65" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="N65" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="O65" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="P65" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+    <row r="66" spans="2:16" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="P66" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-    </row>
-    <row r="64" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-    </row>
-    <row r="65" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-    </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-    </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
-    </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+    </row>
+    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
-    </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+    </row>
+    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
-    </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+    </row>
+    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E70" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
-    </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+    </row>
+    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
-    </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N71" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+    </row>
+    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E72" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
-    </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N72" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+    </row>
+    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N73" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+    </row>
+    <row r="74" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E74" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
-    </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N74" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+    </row>
+    <row r="75" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+    </row>
+    <row r="76" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E76" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N76" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+    </row>
+    <row r="77" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N77" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+    </row>
+    <row r="78" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E78" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
-    </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+    </row>
+    <row r="79" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N79" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+    </row>
+    <row r="80" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
-    </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+    </row>
+    <row r="81" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
-    </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+    </row>
+    <row r="82" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
-    </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="46" t="s">
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+    </row>
+    <row r="83" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N83" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+    </row>
+    <row r="84" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N84" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+    </row>
+    <row r="85" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N85" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+    </row>
+    <row r="86" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-    </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-    </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E85" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-    </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="C86" s="21" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="21"/>
-      <c r="G86" s="21" t="s">
-        <v>101</v>
-      </c>
+      <c r="G86" s="21"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
-    </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E87" s="37" t="s">
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N86" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-    </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N87" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="21"/>
-      <c r="G88" s="21" t="s">
-        <v>101</v>
-      </c>
+      <c r="G88" s="21"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
-    </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N88" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E89" s="37" t="s">
         <v>25</v>
       </c>
       <c r="F89" s="37"/>
-      <c r="G89" s="37" t="s">
-        <v>101</v>
-      </c>
+      <c r="G89" s="37"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
-    </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="45" t="s">
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N89" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+    </row>
+    <row r="90" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+    </row>
+    <row r="91" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C91" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="E91" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+    </row>
+    <row r="92" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+    </row>
+    <row r="94" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E94" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-    </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="61"/>
-      <c r="C93" s="62" t="s">
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+    </row>
+    <row r="95" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+    </row>
+    <row r="96" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+    </row>
+    <row r="97" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="O97" s="45"/>
+      <c r="P97" s="45"/>
+    </row>
+    <row r="100" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="61"/>
+      <c r="C100" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+    </row>
+    <row r="101" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="27" t="str">
-        <f>M49</f>
+      <c r="D101" s="27" t="str">
+        <f>T53</f>
         <v>BC</v>
       </c>
-      <c r="E94" s="27" t="str">
-        <f>M48</f>
+      <c r="E101" s="27" t="str">
+        <f>T52</f>
         <v>HC</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="4" t="s">
+    <row r="102" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="21" t="str">
-        <f>C63</f>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="21" t="str">
+        <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C103" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D103" s="21">
         <v>110</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="35"/>
-    </row>
-    <row r="97" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="37" t="str">
-        <f t="shared" ref="B97:B104" si="10">C64</f>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="35"/>
+    </row>
+    <row r="104" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="37" t="str">
+        <f t="shared" ref="B104:B111" si="12">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C104" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D104" s="37">
         <v>14</v>
       </c>
-      <c r="E97" s="37"/>
-      <c r="F97" s="39"/>
-    </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="39"/>
+    </row>
+    <row r="105" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="21" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_BC_FBC</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C105" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D105" s="21">
         <v>106</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="37" t="str">
-        <f t="shared" si="10"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+    </row>
+    <row r="106" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="37" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_HC_PC</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C106" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37">
+      <c r="D106" s="37"/>
+      <c r="E106" s="37">
         <v>94</v>
       </c>
-      <c r="F99" s="37"/>
-    </row>
-    <row r="100" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+    </row>
+    <row r="107" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="21" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C107" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21">
+      <c r="D107" s="21"/>
+      <c r="E107" s="21">
         <v>94</v>
       </c>
-      <c r="F100" s="21"/>
-    </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="37" t="str">
-        <f t="shared" si="10"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+    </row>
+    <row r="108" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="37" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C108" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37">
+      <c r="D108" s="37"/>
+      <c r="E108" s="37">
         <v>12</v>
       </c>
-      <c r="F101" s="37"/>
-    </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+    </row>
+    <row r="109" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="21" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C109" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21">
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="37" t="str">
-        <f t="shared" si="10"/>
+    <row r="110" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="37" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C110" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37">
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="45" t="str">
-        <f t="shared" si="10"/>
+    <row r="111" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="45" t="str">
+        <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="C111" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45">
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45">
         <v>56</v>
       </c>
     </row>
+    <row r="112" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="37" t="str">
+        <f>C87</f>
+        <v>ELE_GAS_H2</v>
+      </c>
+      <c r="C112" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="M112" s="37">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:M2"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4625,26 +5713,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4839,28 +5907,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4877,4 +5944,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\Projekt-main\Projekt-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57B2AD-1F68-44B5-B13F-4F07A0C737B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41891F7-503F-4402-A9B3-0BA5AA3A8D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1349,6 +1349,42 @@
   </si>
   <si>
     <t>INFO DLA KOSIORA I RYMKA: Wypełnijcie ponizej tabelke, dodałem tam trzy nowe technologie, elektrolizer, turbina mieszana na gaz i wodór i turbina tylko na wodór. Musicie powypełniać zaznaczone na rozowo pola.</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/-/media/Files/IRENA/Agency/Publication/%202020/Dec/IRENA_Green_hydrogen_cost_2020.pdf</t>
+  </si>
+  <si>
+    <t>Przyjmujemy alkaliczny elektrolizer</t>
+  </si>
+  <si>
+    <t>invcost - str 72</t>
+  </si>
+  <si>
+    <t>eff -str 11</t>
+  </si>
+  <si>
+    <t>elektrolizer wymaga wymiany stosu co około 60000 godzin ale ogółem się buduje system pod wymiane tego i prace do 20 lat około - str 10</t>
+  </si>
+  <si>
+    <t>https://www.hydrogen.energy.gov/docs/hydrogenprogramlibraries/pdfs/review22/p204_james_2022_p-pdf.pdf</t>
+  </si>
+  <si>
+    <t>variable i fixed costs (str 10):</t>
+  </si>
+  <si>
+    <t>https://p3.aprimocdn.net/siemensenergy/f592779d-ac7d-494a-a690-b20a00ba23c3/GT-Portfolio-Brochure-2024-update-pdf_Original%20file.pdf?apr_optimization=false</t>
+  </si>
+  <si>
+    <t>eff - str 4</t>
+  </si>
+  <si>
+    <t>https://iea.blob.core.windows.net/assets/ecdfc3bb-d212-4a4c-9ff7-6ce5b1e19cef/GlobalHydrogenReview2023.pdf</t>
+  </si>
+  <si>
+    <t>https://cordis.europa.eu/project/id/884229/reporting</t>
+  </si>
+  <si>
+    <t>ciężko znaleźć było koszty inwestycyjne i stale i variable, więc zrobilem 120% kosztów za gazowe</t>
   </si>
 </sst>
 </file>
@@ -1450,16 +1486,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="7" tint="0.59999389629810485"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color theme="7" tint="0.59999389629810485"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1588,7 +1626,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1596,8 +1634,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,19 +1772,26 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="Hiperłącze" xfId="7" builtinId="8"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Per cent" xfId="6" builtinId="5"/>
+    <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1898,7 +1944,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1936,7 +1982,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2008,7 +2054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2183,33 +2229,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AE112"/>
+  <dimension ref="B1:BJ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:V31"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" customWidth="1"/>
-    <col min="23" max="25" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" customWidth="1"/>
+    <col min="23" max="25" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C1" s="67" t="s">
         <v>178</v>
       </c>
@@ -2230,7 +2276,7 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
-    <row r="2" spans="2:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2252,7 +2298,7 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="6"/>
@@ -2261,7 +2307,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2286,7 +2332,7 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="2:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:27" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2407,7 +2453,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2463,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="1">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2503,7 +2549,7 @@
         <v>14600</v>
       </c>
       <c r="R8" s="57">
-        <f t="shared" ref="R8:R26" si="2">Q8</f>
+        <f t="shared" ref="R8:R28" si="2">Q8</f>
         <v>14600</v>
       </c>
       <c r="S8" s="40">
@@ -2519,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C69</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2575,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C70</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2631,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C71</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2687,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C25" si="6">C72</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2743,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2799,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2855,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2911,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2967,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -3022,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -3078,7 +3124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -3134,7 +3180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -3190,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -3246,7 +3292,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3302,7 +3348,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3358,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3414,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3470,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:62" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="str">
         <f>C89</f>
         <v>ELE_NEW_BIOM</v>
@@ -3526,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37" t="str">
         <f>C86</f>
         <v>ELEKTROLIZER</v>
@@ -3553,19 +3599,58 @@
       <c r="M27" s="37">
         <v>2030</v>
       </c>
-      <c r="N27" s="68"/>
-      <c r="O27" s="37">
+      <c r="N27" s="68">
+        <v>0.65</v>
+      </c>
+      <c r="O27" s="69">
         <v>31.536000000000001</v>
       </c>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="70"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P27" s="68">
+        <v>0.98</v>
+      </c>
+      <c r="Q27" s="70">
+        <v>2580</v>
+      </c>
+      <c r="R27" s="70">
+        <f t="shared" si="2"/>
+        <v>2580</v>
+      </c>
+      <c r="S27" s="76">
+        <f>Q27*0.015</f>
+        <v>38.699999999999996</v>
+      </c>
+      <c r="T27" s="71">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U27" s="70">
+        <v>20</v>
+      </c>
+      <c r="V27" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ27" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT27" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f>C87</f>
         <v>ELE_GAS_H2</v>
@@ -3603,19 +3688,46 @@
       <c r="M28" s="37">
         <v>2025</v>
       </c>
-      <c r="N28" s="69"/>
-      <c r="O28" s="21">
+      <c r="N28" s="75">
+        <v>0.62</v>
+      </c>
+      <c r="O28" s="72">
         <v>31.536000000000001</v>
       </c>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P28" s="75">
+        <v>0.9</v>
+      </c>
+      <c r="Q28" s="70">
+        <v>4085</v>
+      </c>
+      <c r="R28" s="70">
+        <f t="shared" si="2"/>
+        <v>4085</v>
+      </c>
+      <c r="S28" s="76">
+        <f>Q28*0.015</f>
+        <v>61.274999999999999</v>
+      </c>
+      <c r="T28" s="70">
+        <v>4.78</v>
+      </c>
+      <c r="U28" s="70">
+        <v>30</v>
+      </c>
+      <c r="V28" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO28" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="2:62" x14ac:dyDescent="0.2">
       <c r="D29" t="str">
         <f>C59</f>
         <v>HYDROGEN</v>
@@ -3643,9 +3755,17 @@
         <v>0.2</v>
       </c>
       <c r="M29" s="37"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N29" s="73"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+    </row>
+    <row r="30" spans="2:62" x14ac:dyDescent="0.2">
       <c r="E30" s="28" t="str">
         <f>$T$57</f>
         <v>ELEC_HV</v>
@@ -3658,9 +3778,17 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="37"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="73"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+    </row>
+    <row r="31" spans="2:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>C88</f>
         <v>ELE_H2</v>
@@ -3687,19 +3815,45 @@
       <c r="M31" s="37">
         <v>2035</v>
       </c>
-      <c r="N31" s="69"/>
-      <c r="O31" s="3">
+      <c r="N31" s="75">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O31" s="74">
         <v>31.536000000000001</v>
       </c>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P31" s="75">
+        <v>0.9</v>
+      </c>
+      <c r="Q31" s="70">
+        <f>1.2*Q28</f>
+        <v>4902</v>
+      </c>
+      <c r="R31" s="70">
+        <f>1.2*R28</f>
+        <v>4902</v>
+      </c>
+      <c r="S31" s="70">
+        <f>Q31*0.025</f>
+        <v>122.55000000000001</v>
+      </c>
+      <c r="T31" s="70">
+        <f>T28*1.2</f>
+        <v>5.7359999999999998</v>
+      </c>
+      <c r="U31" s="70">
+        <v>25</v>
+      </c>
+      <c r="V31" s="78">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE31" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:62" x14ac:dyDescent="0.2">
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -3713,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:31" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
@@ -3724,13 +3878,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Z34" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="47" t="s">
@@ -3751,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="50" t="s">
         <v>1</v>
       </c>
@@ -3782,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:31" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:31" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
@@ -3813,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="51" t="str">
         <f>C91</f>
         <v>MIN_WIND-OFF</v>
@@ -3840,7 +3994,7 @@
       <c r="N38" s="53"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="55" t="str">
         <f t="shared" ref="B39:B44" si="9">C92</f>
         <v>IMP_URAN</v>
@@ -3866,7 +4020,7 @@
       </c>
       <c r="N39" s="37"/>
     </row>
-    <row r="40" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="51" t="str">
         <f t="shared" si="9"/>
         <v>MIN_GEO</v>
@@ -3892,7 +4046,7 @@
       </c>
       <c r="N40" s="21"/>
     </row>
-    <row r="41" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MIN_BIOG-AGR</v>
@@ -3918,7 +4072,7 @@
       </c>
       <c r="N41" s="37"/>
     </row>
-    <row r="42" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="51" t="str">
         <f t="shared" si="9"/>
         <v>MIN_BIOG-WWTP</v>
@@ -3944,7 +4098,7 @@
       </c>
       <c r="N42" s="21"/>
     </row>
-    <row r="43" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MIN_BIOG_LFILL</v>
@@ -3970,7 +4124,7 @@
       </c>
       <c r="N43" s="37"/>
     </row>
-    <row r="44" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="56" t="str">
         <f t="shared" si="9"/>
         <v>MIN_BIOM</v>
@@ -3996,12 +4150,12 @@
       </c>
       <c r="N44" s="45"/>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="S45" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="2:31" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>57</v>
       </c>
@@ -4023,7 +4177,7 @@
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="49" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>15</v>
       </c>
@@ -4052,7 +4206,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="2:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
@@ -4109,7 +4263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:26" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -4166,7 +4320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -4207,7 +4361,7 @@
       <c r="Y52" s="28"/>
       <c r="Z52" s="28"/>
     </row>
-    <row r="53" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -4248,7 +4402,7 @@
       <c r="Y53" s="30"/>
       <c r="Z53" s="30"/>
     </row>
-    <row r="54" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -4289,7 +4443,7 @@
       <c r="Y54" s="28"/>
       <c r="Z54" s="28"/>
     </row>
-    <row r="55" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -4330,7 +4484,7 @@
       <c r="Y55" s="30"/>
       <c r="Z55" s="30"/>
     </row>
-    <row r="56" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="19" t="s">
         <v>24</v>
       </c>
@@ -4371,7 +4525,7 @@
       <c r="Y56" s="28"/>
       <c r="Z56" s="28"/>
     </row>
-    <row r="57" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="24" t="s">
         <v>24</v>
       </c>
@@ -4418,7 +4572,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="22" t="s">
         <v>24</v>
       </c>
@@ -4451,7 +4605,7 @@
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -4472,18 +4626,18 @@
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
     </row>
-    <row r="61" spans="2:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="64" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="18" t="s">
         <v>27</v>
       </c>
@@ -4502,7 +4656,7 @@
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
     </row>
-    <row r="65" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
@@ -4535,7 +4689,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
@@ -4568,7 +4722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
@@ -4597,7 +4751,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
     </row>
-    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="37" t="s">
         <v>34</v>
       </c>
@@ -4626,7 +4780,7 @@
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
     </row>
-    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>34</v>
       </c>
@@ -4655,7 +4809,7 @@
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
     </row>
-    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="37" t="s">
         <v>34</v>
       </c>
@@ -4684,7 +4838,7 @@
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
     </row>
-    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="21" t="s">
         <v>34</v>
       </c>
@@ -4713,7 +4867,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
     </row>
-    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="37" t="s">
         <v>34</v>
       </c>
@@ -4742,7 +4896,7 @@
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
     </row>
-    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
@@ -4771,7 +4925,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
     </row>
-    <row r="74" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="37" t="s">
         <v>34</v>
       </c>
@@ -4800,7 +4954,7 @@
       <c r="O74" s="37"/>
       <c r="P74" s="37"/>
     </row>
-    <row r="75" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
         <v>34</v>
       </c>
@@ -4829,7 +4983,7 @@
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
     </row>
-    <row r="76" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="37" t="s">
         <v>34</v>
       </c>
@@ -4858,7 +5012,7 @@
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
     </row>
-    <row r="77" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="21" t="s">
         <v>34</v>
       </c>
@@ -4887,7 +5041,7 @@
       <c r="O77" s="21"/>
       <c r="P77" s="21"/>
     </row>
-    <row r="78" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="37" t="s">
         <v>34</v>
       </c>
@@ -4916,7 +5070,7 @@
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
     </row>
-    <row r="79" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="21" t="s">
         <v>34</v>
       </c>
@@ -4945,7 +5099,7 @@
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
     </row>
-    <row r="80" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="37" t="s">
         <v>34</v>
       </c>
@@ -4974,7 +5128,7 @@
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
     </row>
-    <row r="81" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="21" t="s">
         <v>34</v>
       </c>
@@ -5003,7 +5157,7 @@
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
     </row>
-    <row r="82" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="37" t="s">
         <v>34</v>
       </c>
@@ -5032,7 +5186,7 @@
       <c r="O82" s="37"/>
       <c r="P82" s="37"/>
     </row>
-    <row r="83" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>34</v>
       </c>
@@ -5061,7 +5215,7 @@
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
     </row>
-    <row r="84" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
@@ -5090,7 +5244,7 @@
       <c r="O84" s="37"/>
       <c r="P84" s="37"/>
     </row>
-    <row r="85" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
@@ -5119,7 +5273,7 @@
       <c r="O85" s="21"/>
       <c r="P85" s="21"/>
     </row>
-    <row r="86" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="21" t="s">
         <v>160</v>
       </c>
@@ -5148,7 +5302,7 @@
       <c r="O86" s="21"/>
       <c r="P86" s="21"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="21" t="s">
         <v>34</v>
       </c>
@@ -5175,7 +5329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="21" t="s">
         <v>34</v>
       </c>
@@ -5202,7 +5356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="37" t="s">
         <v>34</v>
       </c>
@@ -5231,7 +5385,7 @@
       <c r="O89" s="37"/>
       <c r="P89" s="37"/>
     </row>
-    <row r="90" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="46" t="s">
         <v>159</v>
       </c>
@@ -5250,7 +5404,7 @@
       <c r="O90" s="46"/>
       <c r="P90" s="46"/>
     </row>
-    <row r="91" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
@@ -5277,7 +5431,7 @@
       <c r="O91" s="21"/>
       <c r="P91" s="21"/>
     </row>
-    <row r="92" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="37" t="s">
         <v>36</v>
       </c>
@@ -5304,7 +5458,7 @@
       <c r="O92" s="37"/>
       <c r="P92" s="37"/>
     </row>
-    <row r="93" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>37</v>
       </c>
@@ -5331,7 +5485,7 @@
       <c r="O93" s="21"/>
       <c r="P93" s="21"/>
     </row>
-    <row r="94" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -5358,7 +5512,7 @@
       <c r="O94" s="37"/>
       <c r="P94" s="37"/>
     </row>
-    <row r="95" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="21" t="s">
         <v>37</v>
       </c>
@@ -5385,7 +5539,7 @@
       <c r="O95" s="21"/>
       <c r="P95" s="21"/>
     </row>
-    <row r="96" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="37" t="s">
         <v>37</v>
       </c>
@@ -5412,7 +5566,7 @@
       <c r="O96" s="37"/>
       <c r="P96" s="37"/>
     </row>
-    <row r="97" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="45" t="s">
         <v>37</v>
       </c>
@@ -5439,7 +5593,7 @@
       <c r="O97" s="45"/>
       <c r="P97" s="45"/>
     </row>
-    <row r="100" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="61"/>
       <c r="C100" s="62" t="s">
         <v>81</v>
@@ -5455,7 +5609,7 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
@@ -5481,7 +5635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
@@ -5499,7 +5653,7 @@
       <c r="L102" s="41"/>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
@@ -5520,7 +5674,7 @@
       <c r="L103" s="21"/>
       <c r="M103" s="35"/>
     </row>
-    <row r="104" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="37" t="str">
         <f t="shared" ref="B104:B111" si="12">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -5541,7 +5695,7 @@
       <c r="L104" s="37"/>
       <c r="M104" s="39"/>
     </row>
-    <row r="105" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="21" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -5562,7 +5716,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="37" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_HC_PC</v>
@@ -5583,7 +5737,7 @@
       <c r="L106" s="37"/>
       <c r="M106" s="37"/>
     </row>
-    <row r="107" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="21" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -5604,7 +5758,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="37" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -5625,7 +5779,7 @@
       <c r="L108" s="37"/>
       <c r="M108" s="37"/>
     </row>
-    <row r="109" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="21" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -5646,7 +5800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="37" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -5667,7 +5821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="45" t="str">
         <f t="shared" si="12"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -5688,7 +5842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="37" t="str">
         <f>C87</f>
         <v>ELE_GAS_H2</v>
@@ -5705,10 +5859,13 @@
     <mergeCell ref="C1:M2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Y28" r:id="rId1" xr:uid="{955FB565-70A5-4D22-912F-3693BC0CAD6F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5908,15 +6065,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -5925,6 +6073,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5947,14 +6104,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5965,4 +6114,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\gowno na raczynskiego\Projekt-main\Projekt-main\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41891F7-503F-4402-A9B3-0BA5AA3A8D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC38EE-F1EC-4FA7-A5A2-05E39DB75DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="190">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1346,9 +1346,6 @@
   </si>
   <si>
     <t>Share-I~UP~2050</t>
-  </si>
-  <si>
-    <t>INFO DLA KOSIORA I RYMKA: Wypełnijcie ponizej tabelke, dodałem tam trzy nowe technologie, elektrolizer, turbina mieszana na gaz i wodór i turbina tylko na wodór. Musicie powypełniać zaznaczone na rozowo pola.</t>
   </si>
   <si>
     <t>https://www.irena.org/-/media/Files/IRENA/Agency/Publication/%202020/Dec/IRENA_Green_hydrogen_cost_2020.pdf</t>
@@ -1768,9 +1765,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1782,16 +1776,19 @@
     <xf numFmtId="1" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Hiperłącze" xfId="7" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1944,7 +1941,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1982,7 +1979,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2054,7 +2051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2232,43 +2229,41 @@
   <dimension ref="B1:BJ112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+      <selection activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="25" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" customWidth="1"/>
+    <col min="23" max="25" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C1" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+    <row r="1" spans="2:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="S1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2276,21 +2271,21 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
-    <row r="2" spans="2:27" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
       <c r="S2" s="11" t="s">
         <v>51</v>
       </c>
@@ -2298,7 +2293,7 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="6"/>
@@ -2307,7 +2302,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2332,7 +2327,7 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="2:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2397,7 +2392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:27" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2453,7 +2448,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2509,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="1">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2565,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C69</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2621,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C70</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2677,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C71</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2733,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C25" si="6">C72</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2789,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2845,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2901,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2957,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -3013,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -3068,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -3124,7 +3119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -3180,7 +3175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -3236,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -3292,7 +3287,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3348,7 +3343,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3404,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3460,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3516,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:62" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:62" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="str">
         <f>C89</f>
         <v>ELE_NEW_BIOM</v>
@@ -3572,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="str">
         <f>C86</f>
         <v>ELEKTROLIZER</v>
@@ -3599,58 +3594,58 @@
       <c r="M27" s="37">
         <v>2030</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="67">
         <v>0.65</v>
       </c>
-      <c r="O27" s="69">
+      <c r="O27" s="68">
         <v>31.536000000000001</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="67">
         <v>0.98</v>
       </c>
-      <c r="Q27" s="70">
+      <c r="Q27" s="69">
         <v>2580</v>
       </c>
-      <c r="R27" s="70">
+      <c r="R27" s="69">
         <f t="shared" si="2"/>
         <v>2580</v>
       </c>
-      <c r="S27" s="76">
+      <c r="S27" s="75">
         <f>Q27*0.015</f>
         <v>38.699999999999996</v>
       </c>
-      <c r="T27" s="71">
+      <c r="T27" s="70">
         <v>2.5099999999999998</v>
       </c>
-      <c r="U27" s="70">
+      <c r="U27" s="69">
         <v>20</v>
       </c>
-      <c r="V27" s="68">
+      <c r="V27" s="67">
         <v>0</v>
       </c>
       <c r="Y27" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK27" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AK27" s="10" t="s">
+      <c r="AO27" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ27" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AO27" s="10" t="s">
+      <c r="AT27" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="AQ27" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT27" s="10" t="s">
+      <c r="BH27" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ27" t="s">
         <v>183</v>
       </c>
-      <c r="BH27" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>C87</f>
         <v>ELE_GAS_H2</v>
@@ -3688,46 +3683,46 @@
       <c r="M28" s="37">
         <v>2025</v>
       </c>
-      <c r="N28" s="75">
+      <c r="N28" s="74">
         <v>0.62</v>
       </c>
-      <c r="O28" s="72">
+      <c r="O28" s="71">
         <v>31.536000000000001</v>
       </c>
-      <c r="P28" s="75">
+      <c r="P28" s="74">
         <v>0.9</v>
       </c>
-      <c r="Q28" s="70">
+      <c r="Q28" s="69">
         <v>4085</v>
       </c>
-      <c r="R28" s="70">
+      <c r="R28" s="69">
         <f t="shared" si="2"/>
         <v>4085</v>
       </c>
-      <c r="S28" s="76">
+      <c r="S28" s="75">
         <f>Q28*0.015</f>
         <v>61.274999999999999</v>
       </c>
-      <c r="T28" s="70">
+      <c r="T28" s="69">
         <v>4.78</v>
       </c>
-      <c r="U28" s="70">
+      <c r="U28" s="69">
         <v>30</v>
       </c>
-      <c r="V28" s="75">
+      <c r="V28" s="74">
         <v>1</v>
       </c>
-      <c r="Y28" s="77" t="s">
+      <c r="Y28" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO28" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AO28" s="10" t="s">
+      <c r="AQ28" t="s">
         <v>187</v>
       </c>
-      <c r="AQ28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>C59</f>
         <v>HYDROGEN</v>
@@ -3755,17 +3750,17 @@
         <v>0.2</v>
       </c>
       <c r="M29" s="37"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-    </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="N29" s="72"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+    </row>
+    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
       <c r="E30" s="28" t="str">
         <f>$T$57</f>
         <v>ELEC_HV</v>
@@ -3778,17 +3773,17 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="37"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-    </row>
-    <row r="31" spans="2:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="72"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+    </row>
+    <row r="31" spans="2:62" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f>C88</f>
         <v>ELE_H2</v>
@@ -3815,45 +3810,45 @@
       <c r="M31" s="37">
         <v>2035</v>
       </c>
-      <c r="N31" s="75">
+      <c r="N31" s="74">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O31" s="74">
+      <c r="O31" s="73">
         <v>31.536000000000001</v>
       </c>
-      <c r="P31" s="75">
+      <c r="P31" s="74">
         <v>0.9</v>
       </c>
-      <c r="Q31" s="70">
+      <c r="Q31" s="69">
         <f>1.2*Q28</f>
         <v>4902</v>
       </c>
-      <c r="R31" s="70">
+      <c r="R31" s="69">
         <f>1.2*R28</f>
         <v>4902</v>
       </c>
-      <c r="S31" s="70">
+      <c r="S31" s="69">
         <f>Q31*0.025</f>
         <v>122.55000000000001</v>
       </c>
-      <c r="T31" s="70">
+      <c r="T31" s="69">
         <f>T28*1.2</f>
         <v>5.7359999999999998</v>
       </c>
-      <c r="U31" s="70">
+      <c r="U31" s="69">
         <v>25</v>
       </c>
-      <c r="V31" s="78">
+      <c r="V31" s="77">
         <v>1</v>
       </c>
       <c r="Y31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE31" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AE31" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -3862,29 +3857,20 @@
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
-      <c r="Z32" s="21">
-        <f>AA90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+      <c r="Z32" s="21"/>
+    </row>
+    <row r="33" spans="2:31" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="Z33" s="37">
-        <f t="shared" ref="Z33:Z37" si="8">AA91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="Z34" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z33" s="37"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="Z34" s="21"/>
+    </row>
+    <row r="35" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="47" t="s">
@@ -3900,12 +3886,9 @@
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
       <c r="N35" s="49"/>
-      <c r="Z35" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="37"/>
+    </row>
+    <row r="36" spans="2:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="50" t="s">
         <v>1</v>
       </c>
@@ -3931,12 +3914,9 @@
       <c r="N36" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Z36" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="21"/>
+    </row>
+    <row r="37" spans="2:31" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
@@ -3962,12 +3942,9 @@
       <c r="N37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Z37" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="37"/>
+    </row>
+    <row r="38" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="str">
         <f>C91</f>
         <v>MIN_WIND-OFF</v>
@@ -3994,13 +3971,13 @@
       <c r="N38" s="53"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="55" t="str">
-        <f t="shared" ref="B39:B44" si="9">C92</f>
+        <f t="shared" ref="B39:B44" si="8">C92</f>
         <v>IMP_URAN</v>
       </c>
       <c r="C39" s="55" t="str">
-        <f t="shared" ref="C39:C43" si="10">D92</f>
+        <f t="shared" ref="C39:C43" si="9">D92</f>
         <v>Nuclear Fuel Import</v>
       </c>
       <c r="D39" s="37" t="str">
@@ -4020,17 +3997,17 @@
       </c>
       <c r="N39" s="37"/>
     </row>
-    <row r="40" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_GEO</v>
+      </c>
+      <c r="C40" s="51" t="str">
         <f t="shared" si="9"/>
-        <v>MIN_GEO</v>
-      </c>
-      <c r="C40" s="51" t="str">
-        <f t="shared" si="10"/>
         <v>Geothermal Mining</v>
       </c>
       <c r="D40" s="21" t="str">
-        <f t="shared" ref="D40:D44" si="11">C54</f>
+        <f t="shared" ref="D40:D44" si="10">C54</f>
         <v>GEO</v>
       </c>
       <c r="E40" s="21"/>
@@ -4046,17 +4023,17 @@
       </c>
       <c r="N40" s="21"/>
     </row>
-    <row r="41" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG-AGR</v>
+      </c>
+      <c r="C41" s="55" t="str">
         <f t="shared" si="9"/>
-        <v>MIN_BIOG-AGR</v>
-      </c>
-      <c r="C41" s="55" t="str">
+        <v>Biogas Supply</v>
+      </c>
+      <c r="D41" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>Biogas Supply</v>
-      </c>
-      <c r="D41" s="37" t="str">
-        <f t="shared" si="11"/>
         <v>BIOG-AGR</v>
       </c>
       <c r="E41" s="37"/>
@@ -4072,17 +4049,17 @@
       </c>
       <c r="N41" s="37"/>
     </row>
-    <row r="42" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG-WWTP</v>
+      </c>
+      <c r="C42" s="51" t="str">
         <f t="shared" si="9"/>
-        <v>MIN_BIOG-WWTP</v>
-      </c>
-      <c r="C42" s="51" t="str">
+        <v>Biogas Supply</v>
+      </c>
+      <c r="D42" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>Biogas Supply</v>
-      </c>
-      <c r="D42" s="21" t="str">
-        <f t="shared" si="11"/>
         <v>BIOG-WWTP</v>
       </c>
       <c r="E42" s="21"/>
@@ -4098,17 +4075,17 @@
       </c>
       <c r="N42" s="21"/>
     </row>
-    <row r="43" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_BIOG_LFILL</v>
+      </c>
+      <c r="C43" s="55" t="str">
         <f t="shared" si="9"/>
-        <v>MIN_BIOG_LFILL</v>
-      </c>
-      <c r="C43" s="55" t="str">
+        <v>Biogas Supply</v>
+      </c>
+      <c r="D43" s="37" t="str">
         <f t="shared" si="10"/>
-        <v>Biogas Supply</v>
-      </c>
-      <c r="D43" s="37" t="str">
-        <f t="shared" si="11"/>
         <v>BIOG_LFILL</v>
       </c>
       <c r="E43" s="37"/>
@@ -4124,9 +4101,9 @@
       </c>
       <c r="N43" s="37"/>
     </row>
-    <row r="44" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>MIN_BIOM</v>
       </c>
       <c r="C44" s="56" t="str">
@@ -4134,7 +4111,7 @@
         <v>Biomass Supply</v>
       </c>
       <c r="D44" s="45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>BIOM</v>
       </c>
       <c r="E44" s="45"/>
@@ -4150,12 +4127,12 @@
       </c>
       <c r="N44" s="45"/>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="S45" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>57</v>
       </c>
@@ -4177,7 +4154,7 @@
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="49" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
         <v>15</v>
       </c>
@@ -4206,7 +4183,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="2:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
@@ -4263,7 +4240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:26" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:26" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -4320,7 +4297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -4361,7 +4338,7 @@
       <c r="Y52" s="28"/>
       <c r="Z52" s="28"/>
     </row>
-    <row r="53" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -4402,7 +4379,7 @@
       <c r="Y53" s="30"/>
       <c r="Z53" s="30"/>
     </row>
-    <row r="54" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -4443,7 +4420,7 @@
       <c r="Y54" s="28"/>
       <c r="Z54" s="28"/>
     </row>
-    <row r="55" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -4484,7 +4461,7 @@
       <c r="Y55" s="30"/>
       <c r="Z55" s="30"/>
     </row>
-    <row r="56" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
         <v>24</v>
       </c>
@@ -4525,7 +4502,7 @@
       <c r="Y56" s="28"/>
       <c r="Z56" s="28"/>
     </row>
-    <row r="57" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="24" t="s">
         <v>24</v>
       </c>
@@ -4572,7 +4549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="22" t="s">
         <v>24</v>
       </c>
@@ -4605,7 +4582,7 @@
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -4626,18 +4603,18 @@
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
     </row>
-    <row r="61" spans="2:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="64" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="18" t="s">
         <v>27</v>
       </c>
@@ -4656,7 +4633,7 @@
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
     </row>
-    <row r="65" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
@@ -4689,7 +4666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
@@ -4722,7 +4699,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
@@ -4751,7 +4728,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
     </row>
-    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>34</v>
       </c>
@@ -4780,7 +4757,7 @@
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
     </row>
-    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>34</v>
       </c>
@@ -4809,7 +4786,7 @@
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
     </row>
-    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>34</v>
       </c>
@@ -4838,7 +4815,7 @@
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
     </row>
-    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
         <v>34</v>
       </c>
@@ -4867,7 +4844,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
     </row>
-    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>34</v>
       </c>
@@ -4896,7 +4873,7 @@
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
     </row>
-    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
@@ -4925,7 +4902,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
     </row>
-    <row r="74" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>34</v>
       </c>
@@ -4954,7 +4931,7 @@
       <c r="O74" s="37"/>
       <c r="P74" s="37"/>
     </row>
-    <row r="75" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
         <v>34</v>
       </c>
@@ -4983,7 +4960,7 @@
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
     </row>
-    <row r="76" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="37" t="s">
         <v>34</v>
       </c>
@@ -5012,7 +4989,7 @@
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
     </row>
-    <row r="77" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>34</v>
       </c>
@@ -5041,7 +5018,7 @@
       <c r="O77" s="21"/>
       <c r="P77" s="21"/>
     </row>
-    <row r="78" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="37" t="s">
         <v>34</v>
       </c>
@@ -5070,7 +5047,7 @@
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
     </row>
-    <row r="79" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
         <v>34</v>
       </c>
@@ -5099,7 +5076,7 @@
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
     </row>
-    <row r="80" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>34</v>
       </c>
@@ -5128,7 +5105,7 @@
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
     </row>
-    <row r="81" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
         <v>34</v>
       </c>
@@ -5157,7 +5134,7 @@
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
     </row>
-    <row r="82" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="37" t="s">
         <v>34</v>
       </c>
@@ -5186,7 +5163,7 @@
       <c r="O82" s="37"/>
       <c r="P82" s="37"/>
     </row>
-    <row r="83" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
         <v>34</v>
       </c>
@@ -5215,7 +5192,7 @@
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
     </row>
-    <row r="84" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
@@ -5244,7 +5221,7 @@
       <c r="O84" s="37"/>
       <c r="P84" s="37"/>
     </row>
-    <row r="85" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
@@ -5273,7 +5250,7 @@
       <c r="O85" s="21"/>
       <c r="P85" s="21"/>
     </row>
-    <row r="86" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
         <v>160</v>
       </c>
@@ -5302,7 +5279,7 @@
       <c r="O86" s="21"/>
       <c r="P86" s="21"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
         <v>34</v>
       </c>
@@ -5329,7 +5306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
         <v>34</v>
       </c>
@@ -5356,7 +5333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="37" t="s">
         <v>34</v>
       </c>
@@ -5385,7 +5362,7 @@
       <c r="O89" s="37"/>
       <c r="P89" s="37"/>
     </row>
-    <row r="90" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
         <v>159</v>
       </c>
@@ -5404,7 +5381,7 @@
       <c r="O90" s="46"/>
       <c r="P90" s="46"/>
     </row>
-    <row r="91" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
@@ -5431,7 +5408,7 @@
       <c r="O91" s="21"/>
       <c r="P91" s="21"/>
     </row>
-    <row r="92" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="37" t="s">
         <v>36</v>
       </c>
@@ -5458,7 +5435,7 @@
       <c r="O92" s="37"/>
       <c r="P92" s="37"/>
     </row>
-    <row r="93" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
         <v>37</v>
       </c>
@@ -5485,7 +5462,7 @@
       <c r="O93" s="21"/>
       <c r="P93" s="21"/>
     </row>
-    <row r="94" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -5512,7 +5489,7 @@
       <c r="O94" s="37"/>
       <c r="P94" s="37"/>
     </row>
-    <row r="95" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="21" t="s">
         <v>37</v>
       </c>
@@ -5539,7 +5516,7 @@
       <c r="O95" s="21"/>
       <c r="P95" s="21"/>
     </row>
-    <row r="96" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="37" t="s">
         <v>37</v>
       </c>
@@ -5566,7 +5543,7 @@
       <c r="O96" s="37"/>
       <c r="P96" s="37"/>
     </row>
-    <row r="97" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="45" t="s">
         <v>37</v>
       </c>
@@ -5593,7 +5570,7 @@
       <c r="O97" s="45"/>
       <c r="P97" s="45"/>
     </row>
-    <row r="100" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="61"/>
       <c r="C100" s="62" t="s">
         <v>81</v>
@@ -5609,7 +5586,7 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
@@ -5635,7 +5612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
@@ -5653,7 +5630,7 @@
       <c r="L102" s="41"/>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
@@ -5674,9 +5651,9 @@
       <c r="L103" s="21"/>
       <c r="M103" s="35"/>
     </row>
-    <row r="104" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="37" t="str">
-        <f t="shared" ref="B104:B111" si="12">C68</f>
+        <f t="shared" ref="B104:B111" si="11">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C104" s="64" t="s">
@@ -5695,9 +5672,9 @@
       <c r="L104" s="37"/>
       <c r="M104" s="39"/>
     </row>
-    <row r="105" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C105" s="21" t="s">
@@ -5716,9 +5693,9 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C106" s="37" t="s">
@@ -5737,9 +5714,9 @@
       <c r="L106" s="37"/>
       <c r="M106" s="37"/>
     </row>
-    <row r="107" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C107" s="21" t="s">
@@ -5758,9 +5735,9 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C108" s="37" t="s">
@@ -5779,9 +5756,9 @@
       <c r="L108" s="37"/>
       <c r="M108" s="37"/>
     </row>
-    <row r="109" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
       <c r="C109" s="21" t="s">
@@ -5800,9 +5777,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
       <c r="C110" s="37" t="s">
@@ -5821,9 +5798,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
       <c r="C111" s="45" t="s">
@@ -5842,7 +5819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="37" t="str">
         <f>C87</f>
         <v>ELE_GAS_H2</v>
@@ -5870,6 +5847,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -6064,41 +6061,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6117,9 +6083,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC38EE-F1EC-4FA7-A5A2-05E39DB75DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05164806-A789-4D0C-8EFA-E83E807BC6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2229,7 +2229,7 @@
   <dimension ref="B1:BJ112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3620,9 +3620,7 @@
       <c r="U27" s="69">
         <v>20</v>
       </c>
-      <c r="V27" s="67">
-        <v>0</v>
-      </c>
+      <c r="V27" s="67"/>
       <c r="Y27" t="s">
         <v>178</v>
       </c>
@@ -3901,19 +3899,17 @@
       <c r="E36" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
+      <c r="F36" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
-      <c r="M36" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="50" t="s">
-        <v>14</v>
-      </c>
       <c r="Z36" s="21"/>
     </row>
     <row r="37" spans="2:31" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
@@ -3929,19 +3925,17 @@
       <c r="E37" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="F37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" s="65"/>
       <c r="I37" s="65"/>
       <c r="J37" s="65"/>
       <c r="K37" s="65"/>
       <c r="L37" s="65"/>
-      <c r="M37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="Z37" s="37"/>
     </row>
     <row r="38" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3958,17 +3952,15 @@
         <v>WIND-OFF</v>
       </c>
       <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="F38" s="54">
+        <v>1E-3</v>
+      </c>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
-      <c r="M38" s="54">
-        <v>1E-3</v>
-      </c>
-      <c r="N38" s="53"/>
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3985,17 +3977,15 @@
         <v>URAN</v>
       </c>
       <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="F39" s="37">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="37">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N39" s="37"/>
     </row>
     <row r="40" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="51" t="str">
@@ -4011,17 +4001,15 @@
         <v>GEO</v>
       </c>
       <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="F40" s="21">
+        <v>1E-3</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
-      <c r="M40" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="str">
@@ -4037,17 +4025,15 @@
         <v>BIOG-AGR</v>
       </c>
       <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="F41" s="37">
+        <v>116.11</v>
+      </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
       <c r="L41" s="37"/>
-      <c r="M41" s="37">
-        <v>116.11</v>
-      </c>
-      <c r="N41" s="37"/>
     </row>
     <row r="42" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="51" t="str">
@@ -4063,17 +4049,15 @@
         <v>BIOG-WWTP</v>
       </c>
       <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="21">
+        <v>104.5</v>
+      </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="21">
-        <v>104.5</v>
-      </c>
-      <c r="N42" s="21"/>
     </row>
     <row r="43" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="55" t="str">
@@ -4089,17 +4073,15 @@
         <v>BIOG_LFILL</v>
       </c>
       <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="F43" s="37">
+        <v>127.7</v>
+      </c>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="37">
-        <v>127.7</v>
-      </c>
-      <c r="N43" s="37"/>
     </row>
     <row r="44" spans="2:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="str">
@@ -4115,17 +4097,15 @@
         <v>BIOM</v>
       </c>
       <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
+      <c r="F44" s="45">
+        <v>25</v>
+      </c>
       <c r="G44" s="45"/>
       <c r="H44" s="45"/>
       <c r="I44" s="45"/>
       <c r="J44" s="45"/>
       <c r="K44" s="45"/>
       <c r="L44" s="45"/>
-      <c r="M44" s="45">
-        <v>25</v>
-      </c>
-      <c r="N44" s="45"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="S45" s="8" t="s">
@@ -4196,25 +4176,21 @@
       <c r="E50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="S50" s="27" t="s">
         <v>16</v>
       </c>
@@ -4253,25 +4229,21 @@
       <c r="E51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="S51" s="4" t="s">
         <v>58</v>
       </c>
@@ -4317,10 +4289,6 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
       <c r="S52" s="28" t="s">
         <v>24</v>
       </c>
@@ -4358,10 +4326,6 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
       <c r="S53" s="30" t="s">
         <v>24</v>
       </c>
@@ -4399,10 +4363,6 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
       <c r="S54" s="28" t="s">
         <v>24</v>
       </c>
@@ -4440,10 +4400,6 @@
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
       <c r="S55" s="30" t="s">
         <v>24</v>
       </c>
@@ -4481,10 +4437,6 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
       <c r="S56" s="28" t="s">
         <v>24</v>
       </c>
@@ -4522,10 +4474,6 @@
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
       <c r="S57" s="33" t="s">
         <v>24</v>
       </c>
@@ -4569,10 +4517,6 @@
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
       <c r="S58" s="14"/>
       <c r="T58" s="15"/>
       <c r="U58" s="14"/>
@@ -4633,7 +4577,7 @@
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
     </row>
-    <row r="65" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
@@ -4646,27 +4590,23 @@
       <c r="E65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
@@ -4679,27 +4619,23 @@
       <c r="E66" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
@@ -4712,23 +4648,19 @@
       <c r="E67" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="F67" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
-      <c r="M67" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N67" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-    </row>
-    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>34</v>
       </c>
@@ -4741,23 +4673,19 @@
       <c r="E68" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
+      <c r="F68" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
       <c r="K68" s="37"/>
       <c r="L68" s="37"/>
-      <c r="M68" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N68" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-    </row>
-    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>34</v>
       </c>
@@ -4770,23 +4698,19 @@
       <c r="E69" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+      <c r="F69" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
-      <c r="M69" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N69" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-    </row>
-    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>34</v>
       </c>
@@ -4799,23 +4723,19 @@
       <c r="E70" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
+      <c r="F70" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
-      <c r="M70" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N70" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-    </row>
-    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
         <v>34</v>
       </c>
@@ -4828,23 +4748,19 @@
       <c r="E71" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+      <c r="F71" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
       <c r="L71" s="21"/>
-      <c r="M71" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N71" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-    </row>
-    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>34</v>
       </c>
@@ -4857,23 +4773,19 @@
       <c r="E72" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="F72" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
       <c r="K72" s="37"/>
       <c r="L72" s="37"/>
-      <c r="M72" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N72" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-    </row>
-    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
@@ -4886,23 +4798,19 @@
       <c r="E73" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+      <c r="F73" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
-      <c r="M73" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N73" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-    </row>
-    <row r="74" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>34</v>
       </c>
@@ -4915,23 +4823,19 @@
       <c r="E74" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
+      <c r="F74" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
       <c r="J74" s="37"/>
       <c r="K74" s="37"/>
       <c r="L74" s="37"/>
-      <c r="M74" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N74" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-    </row>
-    <row r="75" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
         <v>34</v>
       </c>
@@ -4944,23 +4848,19 @@
       <c r="E75" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+      <c r="F75" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
-      <c r="M75" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N75" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-    </row>
-    <row r="76" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="37" t="s">
         <v>34</v>
       </c>
@@ -4973,23 +4873,19 @@
       <c r="E76" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
+      <c r="F76" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
       <c r="K76" s="37"/>
       <c r="L76" s="37"/>
-      <c r="M76" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N76" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-    </row>
-    <row r="77" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>34</v>
       </c>
@@ -5002,23 +4898,19 @@
       <c r="E77" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="F77" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
-      <c r="M77" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N77" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-    </row>
-    <row r="78" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="37" t="s">
         <v>34</v>
       </c>
@@ -5031,23 +4923,19 @@
       <c r="E78" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
+      <c r="F78" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
-      <c r="M78" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N78" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-    </row>
-    <row r="79" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
         <v>34</v>
       </c>
@@ -5060,23 +4948,19 @@
       <c r="E79" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+      <c r="F79" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
-      <c r="M79" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N79" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-    </row>
-    <row r="80" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>34</v>
       </c>
@@ -5089,23 +4973,19 @@
       <c r="E80" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
+      <c r="F80" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
       <c r="L80" s="37"/>
-      <c r="M80" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N80" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-    </row>
-    <row r="81" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
         <v>34</v>
       </c>
@@ -5118,23 +4998,19 @@
       <c r="E81" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
+      <c r="F81" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
       <c r="L81" s="21"/>
-      <c r="M81" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N81" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-    </row>
-    <row r="82" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="37" t="s">
         <v>34</v>
       </c>
@@ -5147,23 +5023,19 @@
       <c r="E82" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
+      <c r="F82" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
-      <c r="M82" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N82" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-    </row>
-    <row r="83" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
         <v>34</v>
       </c>
@@ -5176,23 +5048,19 @@
       <c r="E83" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
+      <c r="F83" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
       <c r="L83" s="21"/>
-      <c r="M83" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N83" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-    </row>
-    <row r="84" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
@@ -5205,23 +5073,19 @@
       <c r="E84" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
+      <c r="F84" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
-      <c r="M84" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N84" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-    </row>
-    <row r="85" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
@@ -5234,23 +5098,19 @@
       <c r="E85" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
+      <c r="F85" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
-      <c r="M85" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N85" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-    </row>
-    <row r="86" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
         <v>160</v>
       </c>
@@ -5263,23 +5123,19 @@
       <c r="E86" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="F86" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N86" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
         <v>34</v>
       </c>
@@ -5292,21 +5148,17 @@
       <c r="E87" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
+      <c r="F87" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
       <c r="L87" s="21"/>
-      <c r="M87" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N87" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
         <v>34</v>
       </c>
@@ -5319,21 +5171,17 @@
       <c r="E88" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
+      <c r="F88" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
       <c r="L88" s="21"/>
-      <c r="M88" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N88" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="37" t="s">
         <v>34</v>
       </c>
@@ -5346,23 +5194,19 @@
       <c r="E89" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
+      <c r="F89" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
       <c r="K89" s="37"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N89" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-    </row>
-    <row r="90" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
         <v>159</v>
       </c>
@@ -5376,12 +5220,8 @@
       <c r="J90" s="46"/>
       <c r="K90" s="46"/>
       <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-    </row>
-    <row r="91" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
@@ -5395,20 +5235,16 @@
         <v>25</v>
       </c>
       <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
       <c r="K91" s="21"/>
       <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-    </row>
-    <row r="92" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="37" t="s">
         <v>36</v>
       </c>
@@ -5422,20 +5258,16 @@
         <v>25</v>
       </c>
       <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
+      <c r="G92" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
       <c r="K92" s="37"/>
       <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
         <v>37</v>
       </c>
@@ -5449,20 +5281,16 @@
         <v>25</v>
       </c>
       <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
       <c r="K93" s="21"/>
       <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-    </row>
-    <row r="94" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -5476,20 +5304,16 @@
         <v>25</v>
       </c>
       <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
+      <c r="G94" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
       <c r="K94" s="37"/>
       <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-    </row>
-    <row r="95" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="21" t="s">
         <v>37</v>
       </c>
@@ -5503,20 +5327,16 @@
         <v>25</v>
       </c>
       <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
       <c r="K95" s="21"/>
       <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="O95" s="21"/>
-      <c r="P95" s="21"/>
-    </row>
-    <row r="96" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="37" t="s">
         <v>37</v>
       </c>
@@ -5530,20 +5350,16 @@
         <v>25</v>
       </c>
       <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
+      <c r="G96" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
       <c r="J96" s="37"/>
       <c r="K96" s="37"/>
       <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-    </row>
-    <row r="97" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="45" t="s">
         <v>37</v>
       </c>
@@ -5557,20 +5373,16 @@
         <v>25</v>
       </c>
       <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
+      <c r="G97" s="45" t="s">
+        <v>100</v>
+      </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
       <c r="J97" s="45"/>
       <c r="K97" s="45"/>
       <c r="L97" s="45"/>
-      <c r="M97" s="45"/>
-      <c r="N97" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
-    </row>
-    <row r="100" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="61"/>
       <c r="C100" s="62" t="s">
         <v>81</v>
@@ -5586,7 +5398,7 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
@@ -5601,18 +5413,17 @@
         <f>T52</f>
         <v>HC</v>
       </c>
-      <c r="F101" s="27"/>
+      <c r="F101" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
-      <c r="M101" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
@@ -5621,16 +5432,15 @@
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="41"/>
       <c r="H102" s="41"/>
       <c r="I102" s="41"/>
       <c r="J102" s="41"/>
       <c r="K102" s="41"/>
       <c r="L102" s="41"/>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="str">
         <f>C67</f>
         <v>ELE_NEW_BC_PL</v>
@@ -5642,16 +5452,15 @@
         <v>110</v>
       </c>
       <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
+      <c r="F103" s="35"/>
       <c r="G103" s="21"/>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
       <c r="K103" s="21"/>
       <c r="L103" s="21"/>
-      <c r="M103" s="35"/>
-    </row>
-    <row r="104" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="37" t="str">
         <f t="shared" ref="B104:B111" si="11">C68</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -5663,16 +5472,15 @@
         <v>14</v>
       </c>
       <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
+      <c r="F104" s="39"/>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
       <c r="J104" s="37"/>
       <c r="K104" s="37"/>
       <c r="L104" s="37"/>
-      <c r="M104" s="39"/>
-    </row>
-    <row r="105" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -5691,9 +5499,8 @@
       <c r="J105" s="21"/>
       <c r="K105" s="21"/>
       <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-    </row>
-    <row r="106" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_PC</v>
@@ -5712,9 +5519,8 @@
       <c r="J106" s="37"/>
       <c r="K106" s="37"/>
       <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-    </row>
-    <row r="107" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -5733,9 +5539,8 @@
       <c r="J107" s="21"/>
       <c r="K107" s="21"/>
       <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-    </row>
-    <row r="108" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -5754,9 +5559,8 @@
       <c r="J108" s="37"/>
       <c r="K108" s="37"/>
       <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-    </row>
-    <row r="109" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -5766,18 +5570,17 @@
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
+      <c r="F109" s="21">
+        <v>56</v>
+      </c>
       <c r="G109" s="21"/>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
-      <c r="M109" s="21">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -5787,18 +5590,17 @@
       </c>
       <c r="D110" s="37"/>
       <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
+      <c r="F110" s="37">
+        <v>6</v>
+      </c>
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
       <c r="I110" s="37"/>
       <c r="J110" s="37"/>
       <c r="K110" s="37"/>
       <c r="L110" s="37"/>
-      <c r="M110" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="45" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -5808,18 +5610,17 @@
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
+      <c r="F111" s="45">
+        <v>56</v>
+      </c>
       <c r="G111" s="45"/>
       <c r="H111" s="45"/>
       <c r="I111" s="45"/>
       <c r="J111" s="45"/>
       <c r="K111" s="45"/>
       <c r="L111" s="45"/>
-      <c r="M111" s="45">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="37" t="str">
         <f>C87</f>
         <v>ELE_GAS_H2</v>
@@ -5827,7 +5628,7 @@
       <c r="C112" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="M112" s="37">
+      <c r="F112" s="37">
         <v>56</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\BFligier\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05164806-A789-4D0C-8EFA-E83E807BC6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305EE15D-6E93-48B8-A1BB-B2376CF09BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -401,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B67" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="191">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1292,9 +1292,6 @@
   </si>
   <si>
     <t>Nie ważne dla nas</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
   </si>
   <si>
     <r>
@@ -1318,9 +1315,6 @@
     </r>
   </si>
   <si>
-    <t>HYDROGEN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Natural gas/hydrogen </t>
   </si>
   <si>
@@ -1382,6 +1376,15 @@
   </si>
   <si>
     <t>ciężko znaleźć było koszty inwestycyjne i stale i variable, więc zrobilem 120% kosztów za gazowe</t>
+  </si>
+  <si>
+    <t>HYDROGEN_IN</t>
+  </si>
+  <si>
+    <t>wodor</t>
+  </si>
+  <si>
+    <t>HYDROGEN_OUT</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1626,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1632,8 +1635,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,16 +1784,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Normal 10 15 2" xfId="9" xr:uid="{A7CAC38E-C15A-4F66-8105-480D60718C6A}"/>
+    <cellStyle name="Normal 39 2 2" xfId="8" xr:uid="{9C11C2A8-194B-450A-8AE6-A295AD84C92C}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
     <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Per cent" xfId="6" builtinId="5"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2226,10 +2235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:BJ112"/>
+  <dimension ref="B1:BJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2341,25 +2350,25 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>5</v>
@@ -2450,11 +2459,11 @@
     </row>
     <row r="7" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="str">
-        <f>C67</f>
+        <f>C68</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
       <c r="C7" s="21" t="str">
-        <f>D67</f>
+        <f>D68</f>
         <v>Brown Coal Pulverized</v>
       </c>
       <c r="D7" s="28" t="str">
@@ -2506,7 +2515,7 @@
     </row>
     <row r="8" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
-        <f t="shared" ref="B8:C8" si="1">C68</f>
+        <f t="shared" ref="B8:C8" si="1">C69</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
       <c r="C8" s="37" t="str">
@@ -2562,7 +2571,7 @@
     </row>
     <row r="9" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
-        <f t="shared" ref="B9:C9" si="3">C69</f>
+        <f t="shared" ref="B9:C9" si="3">C70</f>
         <v>ELE_NEW_BC_FBC</v>
       </c>
       <c r="C9" s="21" t="str">
@@ -2618,7 +2627,7 @@
     </row>
     <row r="10" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
-        <f t="shared" ref="B10:C10" si="4">C70</f>
+        <f t="shared" ref="B10:C10" si="4">C71</f>
         <v>ELE_NEW_HC_PC</v>
       </c>
       <c r="C10" s="37" t="str">
@@ -2674,7 +2683,7 @@
     </row>
     <row r="11" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
-        <f t="shared" ref="B11:C11" si="5">C71</f>
+        <f t="shared" ref="B11:C11" si="5">C72</f>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
       <c r="C11" s="21" t="str">
@@ -2730,7 +2739,7 @@
     </row>
     <row r="12" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
-        <f t="shared" ref="B12:C25" si="6">C72</f>
+        <f t="shared" ref="B12:C25" si="6">C73</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
       <c r="C12" s="37" t="str">
@@ -3513,11 +3522,11 @@
     </row>
     <row r="26" spans="2:62" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="str">
-        <f>C89</f>
+        <f>C90</f>
         <v>ELE_NEW_BIOM</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>D89</f>
+        <f>D90</f>
         <v>Biomass</v>
       </c>
       <c r="D26" s="3" t="str">
@@ -3569,11 +3578,11 @@
     </row>
     <row r="27" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="str">
-        <f>C86</f>
+        <f>C87</f>
         <v>ELEKTROLIZER</v>
       </c>
       <c r="C27" s="21" t="str">
-        <f>D86</f>
+        <f>D87</f>
         <v>elektrolizer</v>
       </c>
       <c r="D27" s="37" t="str">
@@ -3582,7 +3591,7 @@
       </c>
       <c r="E27" s="21" t="str">
         <f>C59</f>
-        <v>HYDROGEN</v>
+        <v>HYDROGEN_IN</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3622,34 +3631,34 @@
       </c>
       <c r="V27" s="67"/>
       <c r="Y27" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO27" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ27" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AK27" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO27" s="10" t="s">
+      <c r="AT27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ27" t="s">
         <v>181</v>
-      </c>
-      <c r="AQ27" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT27" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="BH27" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
-        <f>C87</f>
+        <f>C88</f>
         <v>ELE_GAS_H2</v>
       </c>
       <c r="C28" t="str">
-        <f>D87</f>
+        <f>D88</f>
         <v xml:space="preserve">Natural gas/hydrogen </v>
       </c>
       <c r="D28" s="66" t="str">
@@ -3711,19 +3720,19 @@
         <v>1</v>
       </c>
       <c r="Y28" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO28" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>185</v>
       </c>
-      <c r="AO28" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="29" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="D29" t="str">
-        <f>C59</f>
-        <v>HYDROGEN</v>
+      <c r="D29" s="66" t="str">
+        <f>C60</f>
+        <v>HYDROGEN_OUT</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21">
@@ -3783,16 +3792,16 @@
     </row>
     <row r="31" spans="2:62" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
-        <f>C88</f>
+        <f>C89</f>
         <v>ELE_H2</v>
       </c>
       <c r="C31" t="str">
-        <f>D88</f>
+        <f>D89</f>
         <v>hydrogen turbine</v>
       </c>
-      <c r="D31" t="str">
-        <f>C59</f>
-        <v>HYDROGEN</v>
+      <c r="D31" s="66" t="str">
+        <f>C60</f>
+        <v>HYDROGEN_OUT</v>
       </c>
       <c r="E31" s="3" t="str">
         <f>$T$57</f>
@@ -3840,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AE31" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="2:62" x14ac:dyDescent="0.25">
@@ -3923,7 +3932,7 @@
         <v>54</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>55</v>
@@ -3940,11 +3949,11 @@
     </row>
     <row r="38" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="str">
-        <f>C91</f>
+        <f>C92</f>
         <v>MIN_WIND-OFF</v>
       </c>
       <c r="C38" s="51" t="str">
-        <f>D91</f>
+        <f>D92</f>
         <v>Offshore Wind</v>
       </c>
       <c r="D38" s="52" t="str">
@@ -3965,11 +3974,11 @@
     </row>
     <row r="39" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="55" t="str">
-        <f t="shared" ref="B39:B44" si="8">C92</f>
+        <f t="shared" ref="B39:B44" si="8">C93</f>
         <v>IMP_URAN</v>
       </c>
       <c r="C39" s="55" t="str">
-        <f t="shared" ref="C39:C43" si="9">D92</f>
+        <f t="shared" ref="C39:C43" si="9">D93</f>
         <v>Nuclear Fuel Import</v>
       </c>
       <c r="D39" s="37" t="str">
@@ -4089,7 +4098,7 @@
         <v>MIN_BIOM</v>
       </c>
       <c r="C44" s="56" t="str">
-        <f>D97</f>
+        <f>D98</f>
         <v>Biomass Supply</v>
       </c>
       <c r="D44" s="45" t="str">
@@ -4526,599 +4535,603 @@
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
+    <row r="59" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="24" t="s">
+      <c r="C59" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="80" t="s">
+        <v>100</v>
+      </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
     </row>
-    <row r="61" spans="2:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B61" s="13" t="s">
+    <row r="60" spans="2:26" s="79" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+    </row>
+    <row r="62" spans="2:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="64" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="18" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="65" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-    </row>
-    <row r="65" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+    </row>
+    <row r="66" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="4" t="s">
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:16" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D68" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E68" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F68" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G68" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-    </row>
-    <row r="68" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="37" t="s">
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+    </row>
+    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C69" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D69" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E69" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="37" t="s">
+      <c r="F69" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G69" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-    </row>
-    <row r="69" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="21" t="s">
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+    </row>
+    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D70" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F70" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G70" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-    </row>
-    <row r="70" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="37" t="s">
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+    </row>
+    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C71" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D71" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E71" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="37" t="s">
+      <c r="F71" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G71" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-    </row>
-    <row r="71" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="21" t="s">
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+    </row>
+    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D72" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E72" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F72" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G72" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-    </row>
-    <row r="72" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="37" t="s">
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+    </row>
+    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C73" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D73" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E73" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F73" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G72" s="37" t="s">
+      <c r="G73" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-    </row>
-    <row r="73" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="21" t="s">
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+    </row>
+    <row r="74" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C74" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D74" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E74" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F74" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G74" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-    </row>
-    <row r="74" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="37" t="s">
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+    </row>
+    <row r="75" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C75" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D75" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E75" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="37" t="s">
+      <c r="F75" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="37" t="s">
+      <c r="G75" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-    </row>
-    <row r="75" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+    </row>
+    <row r="76" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C76" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D76" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E76" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F76" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G76" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-    </row>
-    <row r="76" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="37" t="s">
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+    </row>
+    <row r="77" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C77" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D77" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E77" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F77" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G77" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-    </row>
-    <row r="77" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="21" t="s">
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+    </row>
+    <row r="78" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C78" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D78" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E78" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F78" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G78" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-    </row>
-    <row r="78" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="37" t="s">
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+    </row>
+    <row r="79" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C79" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D79" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E79" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="37" t="s">
+      <c r="F79" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G79" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-    </row>
-    <row r="79" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="21" t="s">
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+    </row>
+    <row r="80" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D80" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E80" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F80" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G80" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-    </row>
-    <row r="80" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="37" t="s">
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="C81" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="D81" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E81" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="37" t="s">
+      <c r="F81" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="37" t="s">
+      <c r="G81" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-    </row>
-    <row r="81" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+    </row>
+    <row r="82" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D82" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E82" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F82" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G82" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-    </row>
-    <row r="82" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="37" t="s">
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C83" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="37" t="s">
+      <c r="D83" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E83" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="37" t="s">
+      <c r="F83" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G82" s="37" t="s">
+      <c r="G83" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-    </row>
-    <row r="83" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="21" t="s">
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+    </row>
+    <row r="84" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D84" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E84" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F84" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G84" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-    </row>
-    <row r="84" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="37" t="s">
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+    </row>
+    <row r="85" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C85" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D85" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E85" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F85" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G85" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-    </row>
-    <row r="85" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
     </row>
     <row r="86" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>25</v>
@@ -5135,15 +5148,15 @@
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>25</v>
@@ -5154,6 +5167,8 @@
       <c r="G87" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
       <c r="L87" s="21"/>
@@ -5163,10 +5178,10 @@
         <v>34</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>25</v>
@@ -5181,454 +5196,477 @@
       <c r="K88" s="21"/>
       <c r="L88" s="21"/>
     </row>
-    <row r="89" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="37" t="s">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+    </row>
+    <row r="90" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="37" t="s">
+      <c r="D90" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E90" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F90" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G89" s="37" t="s">
+      <c r="G90" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-    </row>
-    <row r="90" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="46" t="s">
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+    </row>
+    <row r="91" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-    </row>
-    <row r="91" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="21" t="s">
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+    </row>
+    <row r="92" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="44" t="s">
+      <c r="C92" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D92" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E92" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21" t="s">
+      <c r="F92" s="21"/>
+      <c r="G92" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-    </row>
-    <row r="92" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="37" t="s">
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+    </row>
+    <row r="93" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C93" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="37" t="s">
+      <c r="D93" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E92" s="37" t="s">
+      <c r="E93" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37" t="s">
+      <c r="F93" s="37"/>
+      <c r="G93" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-    </row>
-    <row r="93" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="21" t="s">
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+    </row>
+    <row r="94" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C94" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D94" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E94" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21" t="s">
+      <c r="F94" s="21"/>
+      <c r="G94" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-    </row>
-    <row r="94" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="37" t="s">
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+    </row>
+    <row r="95" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C95" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D94" s="37" t="s">
+      <c r="D95" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E95" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37" t="s">
+      <c r="F95" s="37"/>
+      <c r="G95" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-    </row>
-    <row r="95" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="21" t="s">
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+    </row>
+    <row r="96" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C96" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D96" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E96" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21" t="s">
+      <c r="F96" s="21"/>
+      <c r="G96" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-    </row>
-    <row r="96" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="37" t="s">
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+    </row>
+    <row r="97" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C97" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="37" t="s">
+      <c r="D97" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E96" s="37" t="s">
+      <c r="E97" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37" t="s">
+      <c r="F97" s="37"/>
+      <c r="G97" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-    </row>
-    <row r="97" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="45" t="s">
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+    </row>
+    <row r="98" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="45" t="s">
+      <c r="C98" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="D97" s="45" t="s">
+      <c r="D98" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E97" s="45" t="s">
+      <c r="E98" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45" t="s">
+      <c r="F98" s="45"/>
+      <c r="G98" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
-    </row>
-    <row r="100" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="61"/>
-      <c r="C100" s="62" t="s">
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+    </row>
+    <row r="101" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="61"/>
+      <c r="C101" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-    </row>
-    <row r="101" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="2" t="s">
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+    </row>
+    <row r="102" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="27" t="str">
+      <c r="D102" s="27" t="str">
         <f>T53</f>
         <v>BC</v>
       </c>
-      <c r="E101" s="27" t="str">
+      <c r="E102" s="27" t="str">
         <f>T52</f>
         <v>HC</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-    </row>
-    <row r="102" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="4" t="s">
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+    </row>
+    <row r="103" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-    </row>
-    <row r="103" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="21" t="str">
-        <f>C67</f>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+    </row>
+    <row r="104" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="21" t="str">
+        <f>C68</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C104" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D104" s="21">
         <v>110</v>
       </c>
-      <c r="E103" s="21"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-    </row>
-    <row r="104" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="37" t="str">
-        <f t="shared" ref="B104:B111" si="11">C68</f>
+      <c r="E104" s="21"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+    </row>
+    <row r="105" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="37" t="str">
+        <f t="shared" ref="B105:B112" si="11">C69</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
-      <c r="C104" s="64" t="s">
+      <c r="C105" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="37">
+      <c r="D105" s="37">
         <v>14</v>
       </c>
-      <c r="E104" s="37"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="37"/>
-    </row>
-    <row r="105" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="str">
+      <c r="E105" s="37"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+    </row>
+    <row r="106" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_BC_FBC</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D105" s="21">
+      <c r="D106" s="21">
         <v>106</v>
       </c>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-    </row>
-    <row r="106" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="37" t="str">
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+    </row>
+    <row r="107" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_PC</v>
       </c>
-      <c r="C106" s="37" t="s">
+      <c r="C107" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37">
+      <c r="D107" s="37"/>
+      <c r="E107" s="37">
         <v>94</v>
       </c>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
-    </row>
-    <row r="107" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="21" t="str">
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+    </row>
+    <row r="108" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C108" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21">
+      <c r="D108" s="21"/>
+      <c r="E108" s="21">
         <v>94</v>
       </c>
-      <c r="F107" s="21"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-    </row>
-    <row r="108" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="37" t="str">
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+    </row>
+    <row r="109" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
       </c>
-      <c r="C108" s="37" t="s">
+      <c r="C109" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37">
+      <c r="D109" s="37"/>
+      <c r="E109" s="37">
         <v>12</v>
       </c>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-    </row>
-    <row r="109" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="21" t="str">
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+    </row>
+    <row r="110" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C110" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21">
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21">
         <v>56</v>
       </c>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-    </row>
-    <row r="110" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="37" t="str">
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+    </row>
+    <row r="111" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="37" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C111" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37">
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37">
         <v>6</v>
       </c>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="37"/>
-    </row>
-    <row r="111" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="45" t="str">
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+    </row>
+    <row r="112" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="45" t="str">
         <f t="shared" si="11"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
       </c>
-      <c r="C111" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45">
-        <v>56</v>
-      </c>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
-    </row>
-    <row r="112" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="37" t="str">
-        <f>C87</f>
-        <v>ELE_GAS_H2</v>
-      </c>
       <c r="C112" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F112" s="37">
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45">
+        <v>56</v>
+      </c>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+    </row>
+    <row r="113" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="37" t="str">
+        <f>C88</f>
+        <v>ELE_GAS_H2</v>
+      </c>
+      <c r="C113" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" s="37">
         <v>56</v>
       </c>
     </row>
@@ -5657,17 +5695,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5862,6 +5889,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
@@ -5871,19 +5909,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5900,4 +5925,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>